--- a/output/resultsByEtiology.xlsx
+++ b/output/resultsByEtiology.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
       <selection activeCell="E355" sqref="E355"/>
@@ -352,5106 +352,8391 @@
         <v>0.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1176.0</v>
+        <v>869.0</v>
       </c>
       <c r="D1" t="n">
-        <v>1104.0</v>
+        <v>323.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>222.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>262.0</v>
+        <v>335.0</v>
       </c>
       <c r="B2" t="n">
-        <v>120.0</v>
+        <v>168.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1371.0</v>
+        <v>991.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1163.0</v>
+        <v>408.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>268.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252.0</v>
+        <v>293.0</v>
       </c>
       <c r="B3" t="n">
-        <v>130.0</v>
+        <v>213.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1292.0</v>
+        <v>926.0</v>
       </c>
       <c r="D3" t="n">
-        <v>994.0</v>
+        <v>393.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>260.0</v>
+        <v>317.0</v>
       </c>
       <c r="B4" t="n">
-        <v>153.0</v>
+        <v>206.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1151.0</v>
+        <v>901.0</v>
       </c>
       <c r="D4" t="n">
-        <v>916.0</v>
+        <v>371.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>233.0</v>
+        <v>340.0</v>
       </c>
       <c r="B5" t="n">
-        <v>122.0</v>
+        <v>255.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1133.0</v>
+        <v>837.0</v>
       </c>
       <c r="D5" t="n">
-        <v>848.0</v>
+        <v>383.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>230.0</v>
+        <v>302.0</v>
       </c>
       <c r="B6" t="n">
-        <v>144.0</v>
+        <v>234.0</v>
       </c>
       <c r="C6" t="n">
-        <v>991.0</v>
+        <v>751.0</v>
       </c>
       <c r="D6" t="n">
-        <v>708.0</v>
+        <v>338.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>255.0</v>
+        <v>372.0</v>
       </c>
       <c r="B7" t="n">
-        <v>150.0</v>
+        <v>205.0</v>
       </c>
       <c r="C7" t="n">
-        <v>922.0</v>
+        <v>734.0</v>
       </c>
       <c r="D7" t="n">
-        <v>598.0</v>
+        <v>292.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>240.0</v>
+        <v>344.0</v>
       </c>
       <c r="B8" t="n">
-        <v>149.0</v>
+        <v>259.0</v>
       </c>
       <c r="C8" t="n">
-        <v>906.0</v>
+        <v>817.0</v>
       </c>
       <c r="D8" t="n">
-        <v>538.0</v>
+        <v>303.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>258.0</v>
+        <v>379.0</v>
       </c>
       <c r="B9" t="n">
-        <v>140.0</v>
+        <v>229.0</v>
       </c>
       <c r="C9" t="n">
-        <v>858.0</v>
+        <v>822.0</v>
       </c>
       <c r="D9" t="n">
-        <v>549.0</v>
+        <v>249.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>249.0</v>
       </c>
-      <c r="B10" t="n">
-        <v>147.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>918.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>528.0</v>
+      <c r="F10" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>282.0</v>
+        <v>356.0</v>
       </c>
       <c r="B11" t="n">
-        <v>145.0</v>
+        <v>241.0</v>
       </c>
       <c r="C11" t="n">
-        <v>839.0</v>
+        <v>765.0</v>
       </c>
       <c r="D11" t="n">
-        <v>457.0</v>
+        <v>239.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253.0</v>
+        <v>344.0</v>
       </c>
       <c r="B12" t="n">
-        <v>149.0</v>
+        <v>250.0</v>
       </c>
       <c r="C12" t="n">
-        <v>822.0</v>
+        <v>768.0</v>
       </c>
       <c r="D12" t="n">
-        <v>447.0</v>
+        <v>243.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>275.0</v>
+        <v>371.0</v>
       </c>
       <c r="B13" t="n">
-        <v>143.0</v>
+        <v>258.0</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0</v>
+        <v>616.0</v>
       </c>
       <c r="D13" t="n">
-        <v>391.0</v>
+        <v>263.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>262.0</v>
+        <v>309.0</v>
       </c>
       <c r="B14" t="n">
-        <v>143.0</v>
+        <v>250.0</v>
       </c>
       <c r="C14" t="n">
-        <v>696.0</v>
+        <v>648.0</v>
       </c>
       <c r="D14" t="n">
-        <v>350.0</v>
+        <v>283.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>273.0</v>
+        <v>377.0</v>
       </c>
       <c r="B15" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>802.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="G15" t="n">
         <v>154.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>812.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>390.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>275.0</v>
+        <v>352.0</v>
       </c>
       <c r="B16" t="n">
-        <v>161.0</v>
+        <v>247.0</v>
       </c>
       <c r="C16" t="n">
-        <v>779.0</v>
+        <v>723.0</v>
       </c>
       <c r="D16" t="n">
-        <v>342.0</v>
+        <v>231.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>262.0</v>
+        <v>369.0</v>
       </c>
       <c r="B17" t="n">
-        <v>127.0</v>
+        <v>289.0</v>
       </c>
       <c r="C17" t="n">
-        <v>767.0</v>
+        <v>687.0</v>
       </c>
       <c r="D17" t="n">
-        <v>371.0</v>
+        <v>252.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>298.0</v>
+        <v>361.0</v>
       </c>
       <c r="B18" t="n">
-        <v>146.0</v>
+        <v>292.0</v>
       </c>
       <c r="C18" t="n">
-        <v>774.0</v>
+        <v>813.0</v>
       </c>
       <c r="D18" t="n">
-        <v>369.0</v>
+        <v>250.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>280.0</v>
+        <v>363.0</v>
       </c>
       <c r="B19" t="n">
-        <v>136.0</v>
+        <v>289.0</v>
       </c>
       <c r="C19" t="n">
-        <v>771.0</v>
+        <v>764.0</v>
       </c>
       <c r="D19" t="n">
-        <v>351.0</v>
+        <v>259.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>288.0</v>
+        <v>333.0</v>
       </c>
       <c r="B20" t="n">
-        <v>148.0</v>
+        <v>274.0</v>
       </c>
       <c r="C20" t="n">
-        <v>633.0</v>
+        <v>646.0</v>
       </c>
       <c r="D20" t="n">
-        <v>302.0</v>
+        <v>231.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>306.0</v>
+        <v>380.0</v>
       </c>
       <c r="B21" t="n">
-        <v>148.0</v>
+        <v>219.0</v>
       </c>
       <c r="C21" t="n">
-        <v>640.0</v>
+        <v>649.0</v>
       </c>
       <c r="D21" t="n">
-        <v>293.0</v>
+        <v>241.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>300.0</v>
+        <v>389.0</v>
       </c>
       <c r="B22" t="n">
-        <v>150.0</v>
+        <v>264.0</v>
       </c>
       <c r="C22" t="n">
-        <v>746.0</v>
+        <v>753.0</v>
       </c>
       <c r="D22" t="n">
-        <v>370.0</v>
+        <v>267.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>293.0</v>
+        <v>380.0</v>
       </c>
       <c r="B23" t="n">
-        <v>148.0</v>
+        <v>268.0</v>
       </c>
       <c r="C23" t="n">
-        <v>722.0</v>
+        <v>762.0</v>
       </c>
       <c r="D23" t="n">
-        <v>308.0</v>
+        <v>240.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>302.0</v>
+        <v>409.0</v>
       </c>
       <c r="B24" t="n">
-        <v>166.0</v>
+        <v>252.0</v>
       </c>
       <c r="C24" t="n">
-        <v>758.0</v>
+        <v>773.0</v>
       </c>
       <c r="D24" t="n">
-        <v>344.0</v>
+        <v>267.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>283.0</v>
+        <v>402.0</v>
       </c>
       <c r="B25" t="n">
-        <v>158.0</v>
+        <v>274.0</v>
       </c>
       <c r="C25" t="n">
-        <v>746.0</v>
+        <v>772.0</v>
       </c>
       <c r="D25" t="n">
-        <v>332.0</v>
+        <v>236.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>320.0</v>
+        <v>456.0</v>
       </c>
       <c r="B26" t="n">
-        <v>152.0</v>
+        <v>291.0</v>
       </c>
       <c r="C26" t="n">
-        <v>722.0</v>
+        <v>743.0</v>
       </c>
       <c r="D26" t="n">
-        <v>362.0</v>
+        <v>245.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>293.0</v>
+        <v>358.0</v>
       </c>
       <c r="B27" t="n">
-        <v>136.0</v>
+        <v>273.0</v>
       </c>
       <c r="C27" t="n">
-        <v>645.0</v>
+        <v>656.0</v>
       </c>
       <c r="D27" t="n">
-        <v>293.0</v>
+        <v>273.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>313.0</v>
+        <v>411.0</v>
       </c>
       <c r="B28" t="n">
-        <v>175.0</v>
+        <v>254.0</v>
       </c>
       <c r="C28" t="n">
-        <v>601.0</v>
+        <v>658.0</v>
       </c>
       <c r="D28" t="n">
-        <v>327.0</v>
+        <v>282.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>290.0</v>
+        <v>423.0</v>
       </c>
       <c r="B29" t="n">
-        <v>163.0</v>
+        <v>271.0</v>
       </c>
       <c r="C29" t="n">
-        <v>734.0</v>
+        <v>777.0</v>
       </c>
       <c r="D29" t="n">
-        <v>316.0</v>
+        <v>295.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>294.0</v>
+        <v>446.0</v>
       </c>
       <c r="B30" t="n">
-        <v>139.0</v>
+        <v>305.0</v>
       </c>
       <c r="C30" t="n">
-        <v>690.0</v>
+        <v>767.0</v>
       </c>
       <c r="D30" t="n">
-        <v>304.0</v>
+        <v>253.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>320.0</v>
+        <v>400.0</v>
       </c>
       <c r="B31" t="n">
-        <v>163.0</v>
+        <v>288.0</v>
       </c>
       <c r="C31" t="n">
-        <v>720.0</v>
+        <v>767.0</v>
       </c>
       <c r="D31" t="n">
-        <v>294.0</v>
+        <v>264.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>311.0</v>
+        <v>415.0</v>
       </c>
       <c r="B32" t="n">
-        <v>138.0</v>
+        <v>266.0</v>
       </c>
       <c r="C32" t="n">
-        <v>685.0</v>
+        <v>826.0</v>
       </c>
       <c r="D32" t="n">
-        <v>332.0</v>
+        <v>252.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>332.0</v>
+        <v>435.0</v>
       </c>
       <c r="B33" t="n">
-        <v>190.0</v>
+        <v>311.0</v>
       </c>
       <c r="C33" t="n">
-        <v>859.0</v>
+        <v>963.0</v>
       </c>
       <c r="D33" t="n">
-        <v>388.0</v>
+        <v>412.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>301.0</v>
+        <v>409.0</v>
       </c>
       <c r="B34" t="n">
-        <v>165.0</v>
+        <v>281.0</v>
       </c>
       <c r="C34" t="n">
-        <v>579.0</v>
+        <v>760.0</v>
       </c>
       <c r="D34" t="n">
-        <v>295.0</v>
+        <v>300.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>317.0</v>
+        <v>404.0</v>
       </c>
       <c r="B35" t="n">
-        <v>159.0</v>
+        <v>271.0</v>
       </c>
       <c r="C35" t="n">
-        <v>638.0</v>
+        <v>700.0</v>
       </c>
       <c r="D35" t="n">
-        <v>321.0</v>
+        <v>291.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>342.0</v>
+        <v>454.0</v>
       </c>
       <c r="B36" t="n">
-        <v>187.0</v>
+        <v>317.0</v>
       </c>
       <c r="C36" t="n">
-        <v>921.0</v>
+        <v>1270.0</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0</v>
+        <v>421.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>382.0</v>
+        <v>467.0</v>
       </c>
       <c r="B37" t="n">
-        <v>193.0</v>
+        <v>334.0</v>
       </c>
       <c r="C37" t="n">
-        <v>936.0</v>
+        <v>1132.0</v>
       </c>
       <c r="D37" t="n">
-        <v>454.0</v>
+        <v>415.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>356.0</v>
+        <v>456.0</v>
       </c>
       <c r="B38" t="n">
-        <v>205.0</v>
+        <v>370.0</v>
       </c>
       <c r="C38" t="n">
-        <v>1001.0</v>
+        <v>1294.0</v>
       </c>
       <c r="D38" t="n">
-        <v>499.0</v>
+        <v>490.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>489.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>382.0</v>
+        <v>496.0</v>
       </c>
       <c r="B39" t="n">
-        <v>237.0</v>
+        <v>357.0</v>
       </c>
       <c r="C39" t="n">
-        <v>1110.0</v>
+        <v>1505.0</v>
       </c>
       <c r="D39" t="n">
-        <v>554.0</v>
+        <v>529.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>439.0</v>
+        <v>497.0</v>
       </c>
       <c r="B40" t="n">
-        <v>233.0</v>
+        <v>388.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1169.0</v>
+        <v>1629.0</v>
       </c>
       <c r="D40" t="n">
-        <v>623.0</v>
+        <v>584.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>291.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>370.0</v>
+        <v>482.0</v>
       </c>
       <c r="B41" t="n">
-        <v>221.0</v>
+        <v>356.0</v>
       </c>
       <c r="C41" t="n">
-        <v>975.0</v>
+        <v>1339.0</v>
       </c>
       <c r="D41" t="n">
-        <v>542.0</v>
+        <v>470.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>397.0</v>
+        <v>453.0</v>
       </c>
       <c r="B42" t="n">
-        <v>231.0</v>
+        <v>321.0</v>
       </c>
       <c r="C42" t="n">
-        <v>935.0</v>
+        <v>1325.0</v>
       </c>
       <c r="D42" t="n">
-        <v>493.0</v>
+        <v>488.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>430.0</v>
+        <v>564.0</v>
       </c>
       <c r="B43" t="n">
-        <v>213.0</v>
+        <v>390.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1325.0</v>
+        <v>2100.0</v>
       </c>
       <c r="D43" t="n">
-        <v>859.0</v>
+        <v>760.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>593.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>390.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>464.0</v>
+        <v>539.0</v>
       </c>
       <c r="B44" t="n">
-        <v>207.0</v>
+        <v>445.0</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.0</v>
+        <v>1950.0</v>
       </c>
       <c r="D44" t="n">
-        <v>826.0</v>
+        <v>726.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>331.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>427.0</v>
+        <v>562.0</v>
       </c>
       <c r="B45" t="n">
-        <v>224.0</v>
+        <v>483.0</v>
       </c>
       <c r="C45" t="n">
-        <v>1405.0</v>
+        <v>2047.0</v>
       </c>
       <c r="D45" t="n">
-        <v>840.0</v>
+        <v>761.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>664.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>739.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>477.0</v>
+        <v>617.0</v>
       </c>
       <c r="B46" t="n">
-        <v>216.0</v>
+        <v>448.0</v>
       </c>
       <c r="C46" t="n">
-        <v>1569.0</v>
+        <v>2473.0</v>
       </c>
       <c r="D46" t="n">
-        <v>893.0</v>
+        <v>798.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>711.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>831.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>424.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>478.0</v>
+        <v>634.0</v>
       </c>
       <c r="B47" t="n">
-        <v>245.0</v>
+        <v>506.0</v>
       </c>
       <c r="C47" t="n">
-        <v>1470.0</v>
+        <v>2601.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1045.0</v>
+        <v>857.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>656.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>949.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>425.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>409.0</v>
+        <v>541.0</v>
       </c>
       <c r="B48" t="n">
-        <v>203.0</v>
+        <v>452.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1217.0</v>
+        <v>2058.0</v>
       </c>
       <c r="D48" t="n">
-        <v>789.0</v>
+        <v>735.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>382.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>394.0</v>
+        <v>531.0</v>
       </c>
       <c r="B49" t="n">
-        <v>223.0</v>
+        <v>375.0</v>
       </c>
       <c r="C49" t="n">
-        <v>1273.0</v>
+        <v>2092.0</v>
       </c>
       <c r="D49" t="n">
-        <v>750.0</v>
+        <v>661.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>440.0</v>
+        <v>662.0</v>
       </c>
       <c r="B50" t="n">
-        <v>238.0</v>
+        <v>447.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1704.0</v>
+        <v>3065.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1258.0</v>
+        <v>1056.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>520.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>446.0</v>
+        <v>609.0</v>
       </c>
       <c r="B51" t="n">
-        <v>252.0</v>
+        <v>470.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1590.0</v>
+        <v>2888.0</v>
       </c>
       <c r="D51" t="n">
-        <v>1182.0</v>
+        <v>1042.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1085.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>484.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>482.0</v>
+        <v>658.0</v>
       </c>
       <c r="B52" t="n">
-        <v>250.0</v>
+        <v>501.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1874.0</v>
+        <v>3003.0</v>
       </c>
       <c r="D52" t="n">
-        <v>1172.0</v>
+        <v>1051.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>906.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1119.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>537.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>505.0</v>
+        <v>666.0</v>
       </c>
       <c r="B53" t="n">
-        <v>245.0</v>
+        <v>588.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1874.0</v>
+        <v>3463.0</v>
       </c>
       <c r="D53" t="n">
-        <v>1196.0</v>
+        <v>1099.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1289.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>558.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>484.0</v>
+        <v>714.0</v>
       </c>
       <c r="B54" t="n">
-        <v>268.0</v>
+        <v>618.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1907.0</v>
+        <v>3641.0</v>
       </c>
       <c r="D54" t="n">
-        <v>1352.0</v>
+        <v>1153.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1417.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>564.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>466.0</v>
+        <v>619.0</v>
       </c>
       <c r="B55" t="n">
-        <v>232.0</v>
+        <v>561.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1484.0</v>
+        <v>2966.0</v>
       </c>
       <c r="D55" t="n">
-        <v>1141.0</v>
+        <v>939.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>487.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>455.0</v>
+        <v>560.0</v>
       </c>
       <c r="B56" t="n">
-        <v>224.0</v>
+        <v>511.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1528.0</v>
+        <v>2870.0</v>
       </c>
       <c r="D56" t="n">
-        <v>1008.0</v>
+        <v>883.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>413.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>524.0</v>
+        <v>683.0</v>
       </c>
       <c r="B57" t="n">
-        <v>273.0</v>
+        <v>597.0</v>
       </c>
       <c r="C57" t="n">
-        <v>2059.0</v>
+        <v>4323.0</v>
       </c>
       <c r="D57" t="n">
-        <v>1686.0</v>
+        <v>1387.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1781.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>727.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>517.0</v>
+        <v>698.0</v>
       </c>
       <c r="B58" t="n">
-        <v>255.0</v>
+        <v>641.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1992.0</v>
+        <v>3830.0</v>
       </c>
       <c r="D58" t="n">
-        <v>1577.0</v>
+        <v>1376.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1314.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1604.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>661.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>559.0</v>
+        <v>699.0</v>
       </c>
       <c r="B59" t="n">
-        <v>275.0</v>
+        <v>682.0</v>
       </c>
       <c r="C59" t="n">
-        <v>2124.0</v>
+        <v>4105.0</v>
       </c>
       <c r="D59" t="n">
-        <v>1630.0</v>
+        <v>1386.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1271.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1593.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>688.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>549.0</v>
+        <v>743.0</v>
       </c>
       <c r="B60" t="n">
-        <v>269.0</v>
+        <v>732.0</v>
       </c>
       <c r="C60" t="n">
-        <v>2241.0</v>
+        <v>4755.0</v>
       </c>
       <c r="D60" t="n">
-        <v>1680.0</v>
+        <v>1376.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1211.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>724.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>597.0</v>
+        <v>776.0</v>
       </c>
       <c r="B61" t="n">
-        <v>275.0</v>
+        <v>756.0</v>
       </c>
       <c r="C61" t="n">
-        <v>2388.0</v>
+        <v>4875.0</v>
       </c>
       <c r="D61" t="n">
-        <v>1969.0</v>
+        <v>1451.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>795.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>491.0</v>
+        <v>707.0</v>
       </c>
       <c r="B62" t="n">
-        <v>224.0</v>
+        <v>655.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1827.0</v>
+        <v>4027.0</v>
       </c>
       <c r="D62" t="n">
-        <v>1495.0</v>
+        <v>1227.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>976.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1570.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>683.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>501.0</v>
+        <v>597.0</v>
       </c>
       <c r="B63" t="n">
-        <v>238.0</v>
+        <v>550.0</v>
       </c>
       <c r="C63" t="n">
-        <v>1865.0</v>
+        <v>3695.0</v>
       </c>
       <c r="D63" t="n">
-        <v>1459.0</v>
+        <v>1103.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1230.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>545.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>617.0</v>
+        <v>784.0</v>
       </c>
       <c r="B64" t="n">
-        <v>227.0</v>
+        <v>611.0</v>
       </c>
       <c r="C64" t="n">
-        <v>2515.0</v>
+        <v>5604.0</v>
       </c>
       <c r="D64" t="n">
-        <v>2330.0</v>
+        <v>1817.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1641.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2413.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1046.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>638.0</v>
+        <v>811.0</v>
       </c>
       <c r="B65" t="n">
-        <v>248.0</v>
+        <v>652.0</v>
       </c>
       <c r="C65" t="n">
-        <v>2539.0</v>
+        <v>4928.0</v>
       </c>
       <c r="D65" t="n">
-        <v>2171.0</v>
+        <v>1657.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1596.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2251.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>935.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>644.0</v>
+        <v>877.0</v>
       </c>
       <c r="B66" t="n">
-        <v>291.0</v>
+        <v>720.0</v>
       </c>
       <c r="C66" t="n">
-        <v>2545.0</v>
+        <v>5252.0</v>
       </c>
       <c r="D66" t="n">
-        <v>2170.0</v>
+        <v>1707.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1593.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2268.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>914.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>630.0</v>
+        <v>865.0</v>
       </c>
       <c r="B67" t="n">
-        <v>284.0</v>
+        <v>781.0</v>
       </c>
       <c r="C67" t="n">
-        <v>2814.0</v>
+        <v>5930.0</v>
       </c>
       <c r="D67" t="n">
-        <v>2235.0</v>
+        <v>1652.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1584.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2447.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>973.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>707.0</v>
+        <v>986.0</v>
       </c>
       <c r="B68" t="n">
-        <v>301.0</v>
+        <v>764.0</v>
       </c>
       <c r="C68" t="n">
-        <v>2911.0</v>
+        <v>6208.0</v>
       </c>
       <c r="D68" t="n">
-        <v>2366.0</v>
+        <v>1785.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1611.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2698.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1070.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>569.0</v>
+        <v>788.0</v>
       </c>
       <c r="B69" t="n">
-        <v>242.0</v>
+        <v>709.0</v>
       </c>
       <c r="C69" t="n">
-        <v>2210.0</v>
+        <v>4997.0</v>
       </c>
       <c r="D69" t="n">
-        <v>1938.0</v>
+        <v>1517.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>723.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>575.0</v>
+        <v>722.0</v>
       </c>
       <c r="B70" t="n">
-        <v>231.0</v>
+        <v>589.0</v>
       </c>
       <c r="C70" t="n">
-        <v>2295.0</v>
+        <v>4603.0</v>
       </c>
       <c r="D70" t="n">
-        <v>1864.0</v>
+        <v>1337.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>907.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1738.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>672.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>707.0</v>
+        <v>897.0</v>
       </c>
       <c r="B71" t="n">
-        <v>255.0</v>
+        <v>659.0</v>
       </c>
       <c r="C71" t="n">
-        <v>2995.0</v>
+        <v>7071.0</v>
       </c>
       <c r="D71" t="n">
-        <v>2723.0</v>
+        <v>2103.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3174.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1133.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>717.0</v>
+        <v>912.0</v>
       </c>
       <c r="B72" t="n">
-        <v>290.0</v>
+        <v>733.0</v>
       </c>
       <c r="C72" t="n">
-        <v>2825.0</v>
+        <v>6004.0</v>
       </c>
       <c r="D72" t="n">
-        <v>2640.0</v>
+        <v>2005.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2891.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1083.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>757.0</v>
+        <v>935.0</v>
       </c>
       <c r="B73" t="n">
-        <v>280.0</v>
+        <v>799.0</v>
       </c>
       <c r="C73" t="n">
-        <v>2986.0</v>
+        <v>6568.0</v>
       </c>
       <c r="D73" t="n">
-        <v>2589.0</v>
+        <v>2040.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2701.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>991.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>772.0</v>
+        <v>965.0</v>
       </c>
       <c r="B74" t="n">
-        <v>321.0</v>
+        <v>789.0</v>
       </c>
       <c r="C74" t="n">
-        <v>3097.0</v>
+        <v>7038.0</v>
       </c>
       <c r="D74" t="n">
-        <v>2584.0</v>
+        <v>2015.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3027.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1094.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>856.0</v>
+        <v>980.0</v>
       </c>
       <c r="B75" t="n">
-        <v>330.0</v>
+        <v>865.0</v>
       </c>
       <c r="C75" t="n">
-        <v>3255.0</v>
+        <v>7355.0</v>
       </c>
       <c r="D75" t="n">
-        <v>2993.0</v>
+        <v>2037.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3317.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1175.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>736.0</v>
+        <v>889.0</v>
       </c>
       <c r="B76" t="n">
-        <v>293.0</v>
+        <v>703.0</v>
       </c>
       <c r="C76" t="n">
-        <v>2509.0</v>
+        <v>5856.0</v>
       </c>
       <c r="D76" t="n">
-        <v>2209.0</v>
+        <v>1847.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1403.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2376.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>873.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>684.0</v>
+        <v>836.0</v>
       </c>
       <c r="B77" t="n">
-        <v>268.0</v>
+        <v>540.0</v>
       </c>
       <c r="C77" t="n">
-        <v>2440.0</v>
+        <v>5382.0</v>
       </c>
       <c r="D77" t="n">
-        <v>2205.0</v>
+        <v>1564.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2082.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>701.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>852.0</v>
+        <v>1001.0</v>
       </c>
       <c r="B78" t="n">
-        <v>280.0</v>
+        <v>596.0</v>
       </c>
       <c r="C78" t="n">
-        <v>3372.0</v>
+        <v>8029.0</v>
       </c>
       <c r="D78" t="n">
-        <v>3538.0</v>
+        <v>2421.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2348.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3746.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1320.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>819.0</v>
+        <v>1007.0</v>
       </c>
       <c r="B79" t="n">
-        <v>308.0</v>
+        <v>629.0</v>
       </c>
       <c r="C79" t="n">
-        <v>3071.0</v>
+        <v>7068.0</v>
       </c>
       <c r="D79" t="n">
-        <v>3281.0</v>
+        <v>2285.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2245.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3449.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1213.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>918.0</v>
+        <v>1098.0</v>
       </c>
       <c r="B80" t="n">
-        <v>326.0</v>
+        <v>670.0</v>
       </c>
       <c r="C80" t="n">
-        <v>3294.0</v>
+        <v>7385.0</v>
       </c>
       <c r="D80" t="n">
+        <v>2314.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2243.0</v>
+      </c>
+      <c r="F80" t="n">
         <v>3244.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1150.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>936.0</v>
+        <v>1053.0</v>
       </c>
       <c r="B81" t="n">
-        <v>364.0</v>
+        <v>771.0</v>
       </c>
       <c r="C81" t="n">
-        <v>3497.0</v>
+        <v>8100.0</v>
       </c>
       <c r="D81" t="n">
-        <v>3330.0</v>
+        <v>2285.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2212.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3335.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1210.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1038.0</v>
+        <v>1207.0</v>
       </c>
       <c r="B82" t="n">
-        <v>372.0</v>
+        <v>789.0</v>
       </c>
       <c r="C82" t="n">
-        <v>3411.0</v>
+        <v>8339.0</v>
       </c>
       <c r="D82" t="n">
-        <v>3664.0</v>
+        <v>2450.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2199.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3669.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1423.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>779.0</v>
+        <v>936.0</v>
       </c>
       <c r="B83" t="n">
-        <v>285.0</v>
+        <v>690.0</v>
       </c>
       <c r="C83" t="n">
-        <v>2702.0</v>
+        <v>6534.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2816.0</v>
+        <v>2051.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1625.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2944.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1007.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>770.0</v>
+        <v>979.0</v>
       </c>
       <c r="B84" t="n">
-        <v>287.0</v>
+        <v>609.0</v>
       </c>
       <c r="C84" t="n">
-        <v>2639.0</v>
+        <v>6089.0</v>
       </c>
       <c r="D84" t="n">
-        <v>2794.0</v>
+        <v>1813.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1302.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2420.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>837.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1014.0</v>
+        <v>1117.0</v>
       </c>
       <c r="B85" t="n">
-        <v>293.0</v>
+        <v>684.0</v>
       </c>
       <c r="C85" t="n">
-        <v>3494.0</v>
+        <v>9101.0</v>
       </c>
       <c r="D85" t="n">
-        <v>4241.0</v>
+        <v>2813.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2654.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4090.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1505.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>970.0</v>
+        <v>1143.0</v>
       </c>
       <c r="B86" t="n">
-        <v>328.0</v>
+        <v>744.0</v>
       </c>
       <c r="C86" t="n">
-        <v>3342.0</v>
+        <v>7810.0</v>
       </c>
       <c r="D86" t="n">
-        <v>3929.0</v>
+        <v>2688.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2647.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3716.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1339.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1089.0</v>
+        <v>1191.0</v>
       </c>
       <c r="B87" t="n">
-        <v>349.0</v>
+        <v>761.0</v>
       </c>
       <c r="C87" t="n">
-        <v>3485.0</v>
+        <v>8332.0</v>
       </c>
       <c r="D87" t="n">
-        <v>3923.0</v>
+        <v>2734.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3649.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1335.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1159.0</v>
+        <v>1307.0</v>
       </c>
       <c r="B88" t="n">
-        <v>359.0</v>
+        <v>891.0</v>
       </c>
       <c r="C88" t="n">
-        <v>3592.0</v>
+        <v>8884.0</v>
       </c>
       <c r="D88" t="n">
-        <v>3977.0</v>
+        <v>2597.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3733.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1334.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1235.0</v>
+        <v>1387.0</v>
       </c>
       <c r="B89" t="n">
-        <v>386.0</v>
+        <v>927.0</v>
       </c>
       <c r="C89" t="n">
-        <v>3777.0</v>
+        <v>9081.0</v>
       </c>
       <c r="D89" t="n">
-        <v>4295.0</v>
+        <v>2755.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2402.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4200.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1523.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>980.0</v>
+        <v>1123.0</v>
       </c>
       <c r="B90" t="n">
-        <v>285.0</v>
+        <v>769.0</v>
       </c>
       <c r="C90" t="n">
-        <v>2822.0</v>
+        <v>7234.0</v>
       </c>
       <c r="D90" t="n">
-        <v>3233.0</v>
+        <v>2310.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3068.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1124.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1027.0</v>
+        <v>1128.0</v>
       </c>
       <c r="B91" t="n">
-        <v>252.0</v>
+        <v>614.0</v>
       </c>
       <c r="C91" t="n">
-        <v>2884.0</v>
+        <v>6620.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3105.0</v>
+        <v>2100.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1450.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2637.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>922.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1276.0</v>
+        <v>1405.0</v>
       </c>
       <c r="B92" t="n">
-        <v>334.0</v>
+        <v>679.0</v>
       </c>
       <c r="C92" t="n">
-        <v>3856.0</v>
+        <v>9697.0</v>
       </c>
       <c r="D92" t="n">
-        <v>5048.0</v>
+        <v>3273.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2889.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4512.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1730.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1198.0</v>
+        <v>1364.0</v>
       </c>
       <c r="B93" t="n">
-        <v>327.0</v>
+        <v>714.0</v>
       </c>
       <c r="C93" t="n">
-        <v>3630.0</v>
+        <v>8345.0</v>
       </c>
       <c r="D93" t="n">
-        <v>4582.0</v>
+        <v>3092.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2792.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4108.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1508.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1355.0</v>
+        <v>1577.0</v>
       </c>
       <c r="B94" t="n">
-        <v>384.0</v>
+        <v>781.0</v>
       </c>
       <c r="C94" t="n">
-        <v>3831.0</v>
+        <v>8963.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4407.0</v>
+        <v>3137.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2676.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3951.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1442.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1505.0</v>
+        <v>1558.0</v>
       </c>
       <c r="B95" t="n">
-        <v>420.0</v>
+        <v>877.0</v>
       </c>
       <c r="C95" t="n">
-        <v>4260.0</v>
+        <v>9422.0</v>
       </c>
       <c r="D95" t="n">
-        <v>4411.0</v>
+        <v>3044.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2626.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4028.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1512.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1528.0</v>
+        <v>1769.0</v>
       </c>
       <c r="B96" t="n">
-        <v>434.0</v>
+        <v>890.0</v>
       </c>
       <c r="C96" t="n">
-        <v>4266.0</v>
+        <v>9790.0</v>
       </c>
       <c r="D96" t="n">
-        <v>4843.0</v>
+        <v>3263.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2556.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4486.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1715.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1296.0</v>
+        <v>1511.0</v>
       </c>
       <c r="B97" t="n">
-        <v>407.0</v>
+        <v>828.0</v>
       </c>
       <c r="C97" t="n">
-        <v>3205.0</v>
+        <v>7490.0</v>
       </c>
       <c r="D97" t="n">
-        <v>3691.0</v>
+        <v>2720.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3245.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1316.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1148.0</v>
+        <v>1342.0</v>
       </c>
       <c r="B98" t="n">
-        <v>390.0</v>
+        <v>650.0</v>
       </c>
       <c r="C98" t="n">
-        <v>3240.0</v>
+        <v>7049.0</v>
       </c>
       <c r="D98" t="n">
-        <v>3636.0</v>
+        <v>2477.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1467.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2779.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1070.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1214.0</v>
+        <v>1411.0</v>
       </c>
       <c r="B99" t="n">
-        <v>349.0</v>
+        <v>623.0</v>
       </c>
       <c r="C99" t="n">
-        <v>3392.0</v>
+        <v>8216.0</v>
       </c>
       <c r="D99" t="n">
-        <v>4059.0</v>
+        <v>2980.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2277.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3588.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1339.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1141.0</v>
+        <v>1398.0</v>
       </c>
       <c r="B100" t="n">
-        <v>351.0</v>
+        <v>644.0</v>
       </c>
       <c r="C100" t="n">
-        <v>3037.0</v>
+        <v>7227.0</v>
       </c>
       <c r="D100" t="n">
-        <v>3729.0</v>
+        <v>2825.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2167.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3381.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1209.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1199.0</v>
+        <v>1457.0</v>
       </c>
       <c r="B101" t="n">
-        <v>365.0</v>
+        <v>643.0</v>
       </c>
       <c r="C101" t="n">
-        <v>3126.0</v>
+        <v>7164.0</v>
       </c>
       <c r="D101" t="n">
-        <v>3576.0</v>
+        <v>2582.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2026.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2979.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1197.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1298.0</v>
+        <v>1377.0</v>
       </c>
       <c r="B102" t="n">
-        <v>384.0</v>
+        <v>654.0</v>
       </c>
       <c r="C102" t="n">
-        <v>3165.0</v>
+        <v>7064.0</v>
       </c>
       <c r="D102" t="n">
-        <v>3417.0</v>
+        <v>2422.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2018.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3017.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1132.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1375.0</v>
+        <v>1519.0</v>
       </c>
       <c r="B103" t="n">
-        <v>400.0</v>
+        <v>663.0</v>
       </c>
       <c r="C103" t="n">
-        <v>3007.0</v>
+        <v>6752.0</v>
       </c>
       <c r="D103" t="n">
-        <v>3467.0</v>
+        <v>2360.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1915.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3006.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1180.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>807.0</v>
+        <v>1092.0</v>
       </c>
       <c r="B104" t="n">
-        <v>295.0</v>
+        <v>499.0</v>
       </c>
       <c r="C104" t="n">
-        <v>1825.0</v>
+        <v>4644.0</v>
       </c>
       <c r="D104" t="n">
-        <v>2028.0</v>
+        <v>1749.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>750.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>961.0</v>
+        <v>1050.0</v>
       </c>
       <c r="B105" t="n">
-        <v>303.0</v>
+        <v>375.0</v>
       </c>
       <c r="C105" t="n">
-        <v>2195.0</v>
+        <v>4652.0</v>
       </c>
       <c r="D105" t="n">
-        <v>2542.0</v>
+        <v>1894.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1297.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>749.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1208.0</v>
+        <v>1323.0</v>
       </c>
       <c r="B106" t="n">
-        <v>365.0</v>
+        <v>517.0</v>
       </c>
       <c r="C106" t="n">
-        <v>2823.0</v>
+        <v>6759.0</v>
       </c>
       <c r="D106" t="n">
-        <v>3857.0</v>
+        <v>2787.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2459.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3146.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1269.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1212.0</v>
+        <v>1423.0</v>
       </c>
       <c r="B107" t="n">
-        <v>439.0</v>
+        <v>621.0</v>
       </c>
       <c r="C107" t="n">
-        <v>2757.0</v>
+        <v>5568.0</v>
       </c>
       <c r="D107" t="n">
-        <v>3286.0</v>
+        <v>2509.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2331.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2630.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1082.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1387.0</v>
+        <v>1682.0</v>
       </c>
       <c r="B108" t="n">
-        <v>498.0</v>
+        <v>695.0</v>
       </c>
       <c r="C108" t="n">
-        <v>2896.0</v>
+        <v>6088.0</v>
       </c>
       <c r="D108" t="n">
-        <v>3243.0</v>
+        <v>2416.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2157.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2580.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1051.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1594.0</v>
+        <v>1730.0</v>
       </c>
       <c r="B109" t="n">
-        <v>535.0</v>
+        <v>754.0</v>
       </c>
       <c r="C109" t="n">
-        <v>2977.0</v>
+        <v>6603.0</v>
       </c>
       <c r="D109" t="n">
-        <v>3268.0</v>
+        <v>2419.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2085.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2716.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1146.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1825.0</v>
+        <v>2118.0</v>
       </c>
       <c r="B110" t="n">
-        <v>543.0</v>
+        <v>865.0</v>
       </c>
       <c r="C110" t="n">
-        <v>3165.0</v>
+        <v>6628.0</v>
       </c>
       <c r="D110" t="n">
-        <v>3659.0</v>
+        <v>2585.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2083.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2957.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1244.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1421.0</v>
+        <v>1672.0</v>
       </c>
       <c r="B111" t="n">
-        <v>428.0</v>
+        <v>731.0</v>
       </c>
       <c r="C111" t="n">
-        <v>2203.0</v>
+        <v>4975.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2533.0</v>
+        <v>1991.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1316.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2036.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>919.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1458.0</v>
+        <v>1694.0</v>
       </c>
       <c r="B112" t="n">
-        <v>423.0</v>
+        <v>607.0</v>
       </c>
       <c r="C112" t="n">
-        <v>2295.0</v>
+        <v>4820.0</v>
       </c>
       <c r="D112" t="n">
-        <v>2781.0</v>
+        <v>1964.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1134.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>748.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1928.0</v>
+        <v>2188.0</v>
       </c>
       <c r="B113" t="n">
-        <v>459.0</v>
+        <v>685.0</v>
       </c>
       <c r="C113" t="n">
-        <v>3187.0</v>
+        <v>7292.0</v>
       </c>
       <c r="D113" t="n">
-        <v>4246.0</v>
+        <v>3317.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2521.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3252.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1502.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1935.0</v>
+        <v>2190.0</v>
       </c>
       <c r="B114" t="n">
-        <v>499.0</v>
+        <v>816.0</v>
       </c>
       <c r="C114" t="n">
-        <v>2860.0</v>
+        <v>6239.0</v>
       </c>
       <c r="D114" t="n">
-        <v>3803.0</v>
+        <v>3198.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2472.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2923.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1339.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2177.0</v>
+        <v>2621.0</v>
       </c>
       <c r="B115" t="n">
-        <v>562.0</v>
+        <v>960.0</v>
       </c>
       <c r="C115" t="n">
-        <v>3021.0</v>
+        <v>6705.0</v>
       </c>
       <c r="D115" t="n">
-        <v>3825.0</v>
+        <v>3153.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2413.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2788.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1303.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2487.0</v>
+        <v>2819.0</v>
       </c>
       <c r="B116" t="n">
-        <v>586.0</v>
+        <v>1117.0</v>
       </c>
       <c r="C116" t="n">
-        <v>3255.0</v>
+        <v>7173.0</v>
       </c>
       <c r="D116" t="n">
-        <v>3935.0</v>
+        <v>3132.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2444.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3095.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1370.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2710.0</v>
+        <v>3197.0</v>
       </c>
       <c r="B117" t="n">
-        <v>640.0</v>
+        <v>1193.0</v>
       </c>
       <c r="C117" t="n">
-        <v>3287.0</v>
+        <v>7289.0</v>
       </c>
       <c r="D117" t="n">
-        <v>4062.0</v>
+        <v>3373.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2442.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3296.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1559.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2222.0</v>
+        <v>2637.0</v>
       </c>
       <c r="B118" t="n">
-        <v>501.0</v>
+        <v>1005.0</v>
       </c>
       <c r="C118" t="n">
-        <v>2392.0</v>
+        <v>5767.0</v>
       </c>
       <c r="D118" t="n">
-        <v>3183.0</v>
+        <v>2829.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1647.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2419.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1129.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2160.0</v>
+        <v>2354.0</v>
       </c>
       <c r="B119" t="n">
-        <v>454.0</v>
+        <v>813.0</v>
       </c>
       <c r="C119" t="n">
-        <v>2486.0</v>
+        <v>5250.0</v>
       </c>
       <c r="D119" t="n">
-        <v>3261.0</v>
+        <v>2701.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1309.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2089.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>986.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2976.0</v>
+        <v>3300.0</v>
       </c>
       <c r="B120" t="n">
-        <v>504.0</v>
+        <v>917.0</v>
       </c>
       <c r="C120" t="n">
-        <v>3280.0</v>
+        <v>7977.0</v>
       </c>
       <c r="D120" t="n">
-        <v>4775.0</v>
+        <v>4378.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2874.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3550.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1747.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
+        <v>3220.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1008.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6825.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4141.0</v>
+      </c>
+      <c r="E121" t="n">
         <v>2802.0</v>
       </c>
-      <c r="B121" t="n">
-        <v>545.0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3109.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4423.0</v>
+      <c r="F121" t="n">
+        <v>3291.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1636.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3360.0</v>
+        <v>3729.0</v>
       </c>
       <c r="B122" t="n">
-        <v>617.0</v>
+        <v>1209.0</v>
       </c>
       <c r="C122" t="n">
-        <v>3282.0</v>
+        <v>7334.0</v>
       </c>
       <c r="D122" t="n">
-        <v>4444.0</v>
+        <v>4095.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2650.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3182.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1582.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3677.0</v>
+        <v>4188.0</v>
       </c>
       <c r="B123" t="n">
-        <v>687.0</v>
+        <v>1428.0</v>
       </c>
       <c r="C123" t="n">
-        <v>3386.0</v>
+        <v>7666.0</v>
       </c>
       <c r="D123" t="n">
-        <v>4495.0</v>
+        <v>4083.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2727.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3177.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1675.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4132.0</v>
+        <v>4696.0</v>
       </c>
       <c r="B124" t="n">
-        <v>737.0</v>
+        <v>1539.0</v>
       </c>
       <c r="C124" t="n">
-        <v>3632.0</v>
+        <v>8009.0</v>
       </c>
       <c r="D124" t="n">
-        <v>4837.0</v>
+        <v>4375.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2761.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3564.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1882.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3088.0</v>
+        <v>3818.0</v>
       </c>
       <c r="B125" t="n">
-        <v>607.0</v>
+        <v>1285.0</v>
       </c>
       <c r="C125" t="n">
-        <v>2540.0</v>
+        <v>6319.0</v>
       </c>
       <c r="D125" t="n">
-        <v>3789.0</v>
+        <v>3715.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2682.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1374.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3107.0</v>
+        <v>3435.0</v>
       </c>
       <c r="B126" t="n">
-        <v>526.0</v>
+        <v>1101.0</v>
       </c>
       <c r="C126" t="n">
-        <v>2663.0</v>
+        <v>5541.0</v>
       </c>
       <c r="D126" t="n">
-        <v>3788.0</v>
+        <v>3382.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1509.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2296.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1187.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4005.0</v>
+        <v>4898.0</v>
       </c>
       <c r="B127" t="n">
-        <v>563.0</v>
+        <v>1222.0</v>
       </c>
       <c r="C127" t="n">
-        <v>3511.0</v>
+        <v>8429.0</v>
       </c>
       <c r="D127" t="n">
-        <v>5690.0</v>
+        <v>5512.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3185.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3993.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2224.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3879.0</v>
+        <v>4632.0</v>
       </c>
       <c r="B128" t="n">
-        <v>622.0</v>
+        <v>1328.0</v>
       </c>
       <c r="C128" t="n">
-        <v>3301.0</v>
+        <v>7151.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5160.0</v>
+        <v>5180.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3110.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3540.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2003.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4551.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B129" t="n">
-        <v>681.0</v>
+        <v>1527.0</v>
       </c>
       <c r="C129" t="n">
-        <v>3354.0</v>
+        <v>7760.0</v>
       </c>
       <c r="D129" t="n">
-        <v>4861.0</v>
+        <v>5062.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2907.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3552.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1956.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5059.0</v>
+        <v>6069.0</v>
       </c>
       <c r="B130" t="n">
-        <v>729.0</v>
+        <v>1645.0</v>
       </c>
       <c r="C130" t="n">
-        <v>3517.0</v>
+        <v>8259.0</v>
       </c>
       <c r="D130" t="n">
-        <v>5091.0</v>
+        <v>5139.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2963.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3486.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2060.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5564.0</v>
+        <v>6920.0</v>
       </c>
       <c r="B131" t="n">
-        <v>825.0</v>
+        <v>1798.0</v>
       </c>
       <c r="C131" t="n">
-        <v>3686.0</v>
+        <v>8517.0</v>
       </c>
       <c r="D131" t="n">
-        <v>5560.0</v>
+        <v>5262.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2982.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3899.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2239.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4254.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B132" t="n">
-        <v>671.0</v>
+        <v>1539.0</v>
       </c>
       <c r="C132" t="n">
-        <v>2746.0</v>
+        <v>6511.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4274.0</v>
+        <v>4406.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2194.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3003.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1687.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4291.0</v>
+        <v>5080.0</v>
       </c>
       <c r="B133" t="n">
-        <v>626.0</v>
+        <v>1179.0</v>
       </c>
       <c r="C133" t="n">
-        <v>2714.0</v>
+        <v>5891.0</v>
       </c>
       <c r="D133" t="n">
-        <v>4155.0</v>
+        <v>4271.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1697.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1394.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5435.0</v>
+        <v>6790.0</v>
       </c>
       <c r="B134" t="n">
-        <v>678.0</v>
+        <v>1401.0</v>
       </c>
       <c r="C134" t="n">
-        <v>3713.0</v>
+        <v>8537.0</v>
       </c>
       <c r="D134" t="n">
-        <v>6243.0</v>
+        <v>6594.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3317.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4091.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2610.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5225.0</v>
+        <v>6306.0</v>
       </c>
       <c r="B135" t="n">
-        <v>748.0</v>
+        <v>1398.0</v>
       </c>
       <c r="C135" t="n">
-        <v>3415.0</v>
+        <v>7474.0</v>
       </c>
       <c r="D135" t="n">
-        <v>5790.0</v>
+        <v>6065.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3314.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3751.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2229.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5946.0</v>
+        <v>7560.0</v>
       </c>
       <c r="B136" t="n">
-        <v>773.0</v>
+        <v>1645.0</v>
       </c>
       <c r="C136" t="n">
-        <v>3446.0</v>
+        <v>7638.0</v>
       </c>
       <c r="D136" t="n">
-        <v>5742.0</v>
+        <v>6104.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3280.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3551.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2090.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6540.0</v>
+        <v>8086.0</v>
       </c>
       <c r="B137" t="n">
-        <v>880.0</v>
+        <v>1778.0</v>
       </c>
       <c r="C137" t="n">
-        <v>3656.0</v>
+        <v>8102.0</v>
       </c>
       <c r="D137" t="n">
-        <v>5769.0</v>
+        <v>5945.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2981.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3642.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2310.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7298.0</v>
+        <v>8994.0</v>
       </c>
       <c r="B138" t="n">
-        <v>961.0</v>
+        <v>1879.0</v>
       </c>
       <c r="C138" t="n">
-        <v>3753.0</v>
+        <v>8334.0</v>
       </c>
       <c r="D138" t="n">
-        <v>6392.0</v>
+        <v>6112.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3174.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4119.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2691.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5340.0</v>
+        <v>7137.0</v>
       </c>
       <c r="B139" t="n">
-        <v>797.0</v>
+        <v>1449.0</v>
       </c>
       <c r="C139" t="n">
-        <v>2813.0</v>
+        <v>6350.0</v>
       </c>
       <c r="D139" t="n">
-        <v>4802.0</v>
+        <v>5207.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2224.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2918.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1856.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5362.0</v>
+        <v>6262.0</v>
       </c>
       <c r="B140" t="n">
-        <v>672.0</v>
+        <v>1151.0</v>
       </c>
       <c r="C140" t="n">
-        <v>2894.0</v>
+        <v>5803.0</v>
       </c>
       <c r="D140" t="n">
-        <v>4774.0</v>
+        <v>4812.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1797.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2497.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1577.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6792.0</v>
+        <v>8650.0</v>
       </c>
       <c r="B141" t="n">
-        <v>770.0</v>
+        <v>1283.0</v>
       </c>
       <c r="C141" t="n">
-        <v>3695.0</v>
+        <v>8265.0</v>
       </c>
       <c r="D141" t="n">
-        <v>7286.0</v>
+        <v>7398.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3534.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4243.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2824.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6289.0</v>
+        <v>7950.0</v>
       </c>
       <c r="B142" t="n">
-        <v>881.0</v>
+        <v>1379.0</v>
       </c>
       <c r="C142" t="n">
-        <v>3478.0</v>
+        <v>7108.0</v>
       </c>
       <c r="D142" t="n">
-        <v>6635.0</v>
+        <v>6880.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3474.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3820.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2552.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7367.0</v>
+        <v>9297.0</v>
       </c>
       <c r="B143" t="n">
-        <v>887.0</v>
+        <v>1555.0</v>
       </c>
       <c r="C143" t="n">
-        <v>3453.0</v>
+        <v>7421.0</v>
       </c>
       <c r="D143" t="n">
-        <v>6540.0</v>
+        <v>6621.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3291.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3546.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2390.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7939.0</v>
+        <v>9878.0</v>
       </c>
       <c r="B144" t="n">
-        <v>916.0</v>
+        <v>1644.0</v>
       </c>
       <c r="C144" t="n">
-        <v>3676.0</v>
+        <v>7747.0</v>
       </c>
       <c r="D144" t="n">
-        <v>6537.0</v>
+        <v>6443.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3122.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3658.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2387.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8478.0</v>
+        <v>10716.0</v>
       </c>
       <c r="B145" t="n">
-        <v>984.0</v>
+        <v>1620.0</v>
       </c>
       <c r="C145" t="n">
-        <v>3751.0</v>
+        <v>7889.0</v>
       </c>
       <c r="D145" t="n">
-        <v>7042.0</v>
+        <v>6660.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3139.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3933.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2800.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>6391.0</v>
+        <v>8343.0</v>
       </c>
       <c r="B146" t="n">
-        <v>739.0</v>
+        <v>1273.0</v>
       </c>
       <c r="C146" t="n">
-        <v>2779.0</v>
+        <v>6026.0</v>
       </c>
       <c r="D146" t="n">
-        <v>5130.0</v>
+        <v>5718.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2271.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2821.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1992.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6255.0</v>
+        <v>7204.0</v>
       </c>
       <c r="B147" t="n">
-        <v>625.0</v>
+        <v>993.0</v>
       </c>
       <c r="C147" t="n">
-        <v>2739.0</v>
+        <v>5527.0</v>
       </c>
       <c r="D147" t="n">
-        <v>5312.0</v>
+        <v>5326.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2485.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1780.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>7734.0</v>
+        <v>9695.0</v>
       </c>
       <c r="B148" t="n">
-        <v>731.0</v>
+        <v>1025.0</v>
       </c>
       <c r="C148" t="n">
-        <v>3632.0</v>
+        <v>7954.0</v>
       </c>
       <c r="D148" t="n">
-        <v>7897.0</v>
+        <v>8012.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3420.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4081.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2909.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5753.0</v>
+        <v>7357.0</v>
       </c>
       <c r="B149" t="n">
-        <v>641.0</v>
+        <v>924.0</v>
       </c>
       <c r="C149" t="n">
-        <v>2726.0</v>
+        <v>5666.0</v>
       </c>
       <c r="D149" t="n">
-        <v>5307.0</v>
+        <v>5809.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2583.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2917.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2005.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>6115.0</v>
+        <v>8047.0</v>
       </c>
       <c r="B150" t="n">
-        <v>585.0</v>
+        <v>973.0</v>
       </c>
       <c r="C150" t="n">
-        <v>2733.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D150" t="n">
-        <v>5073.0</v>
+        <v>5459.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2492.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2600.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1958.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6116.0</v>
+        <v>7912.0</v>
       </c>
       <c r="B151" t="n">
-        <v>536.0</v>
+        <v>925.0</v>
       </c>
       <c r="C151" t="n">
-        <v>2705.0</v>
+        <v>5949.0</v>
       </c>
       <c r="D151" t="n">
-        <v>5089.0</v>
+        <v>5313.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2313.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2644.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1978.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>6214.0</v>
+        <v>8368.0</v>
       </c>
       <c r="B152" t="n">
-        <v>498.0</v>
+        <v>927.0</v>
       </c>
       <c r="C152" t="n">
-        <v>2651.0</v>
+        <v>5877.0</v>
       </c>
       <c r="D152" t="n">
-        <v>5059.0</v>
+        <v>5263.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2292.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2764.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2076.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3451.0</v>
+        <v>5168.0</v>
       </c>
       <c r="B153" t="n">
-        <v>307.0</v>
+        <v>655.0</v>
       </c>
       <c r="C153" t="n">
-        <v>1671.0</v>
+        <v>3843.0</v>
       </c>
       <c r="D153" t="n">
-        <v>3104.0</v>
+        <v>4060.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1548.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1693.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1355.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3969.0</v>
+        <v>4964.0</v>
       </c>
       <c r="B154" t="n">
-        <v>327.0</v>
+        <v>564.0</v>
       </c>
       <c r="C154" t="n">
-        <v>1979.0</v>
+        <v>3857.0</v>
       </c>
       <c r="D154" t="n">
-        <v>3863.0</v>
+        <v>4180.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1598.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1741.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1287.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2725.0</v>
+        <v>3579.0</v>
       </c>
       <c r="B155" t="n">
-        <v>273.0</v>
+        <v>400.0</v>
       </c>
       <c r="C155" t="n">
-        <v>1796.0</v>
+        <v>3424.0</v>
       </c>
       <c r="D155" t="n">
-        <v>3421.0</v>
+        <v>3535.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1578.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1578.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1103.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1957.0</v>
+        <v>2563.0</v>
       </c>
       <c r="B156" t="n">
-        <v>259.0</v>
+        <v>342.0</v>
       </c>
       <c r="C156" t="n">
-        <v>1470.0</v>
+        <v>2802.0</v>
       </c>
       <c r="D156" t="n">
-        <v>2786.0</v>
+        <v>3091.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1386.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1360.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1089.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1370.0</v>
+        <v>1690.0</v>
       </c>
       <c r="B157" t="n">
-        <v>224.0</v>
+        <v>301.0</v>
       </c>
       <c r="C157" t="n">
-        <v>1186.0</v>
+        <v>2354.0</v>
       </c>
       <c r="D157" t="n">
-        <v>2185.0</v>
+        <v>2495.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1371.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2181.0</v>
+        <v>2877.0</v>
       </c>
       <c r="B158" t="n">
-        <v>254.0</v>
+        <v>412.0</v>
       </c>
       <c r="C158" t="n">
-        <v>1827.0</v>
+        <v>3704.0</v>
       </c>
       <c r="D158" t="n">
-        <v>3214.0</v>
+        <v>3731.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2114.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1727.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1279.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2076.0</v>
+        <v>2623.0</v>
       </c>
       <c r="B159" t="n">
-        <v>313.0</v>
+        <v>514.0</v>
       </c>
       <c r="C159" t="n">
-        <v>1585.0</v>
+        <v>3098.0</v>
       </c>
       <c r="D159" t="n">
-        <v>2636.0</v>
+        <v>3074.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1510.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1040.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1191.0</v>
+        <v>1733.0</v>
       </c>
       <c r="B160" t="n">
-        <v>222.0</v>
+        <v>428.0</v>
       </c>
       <c r="C160" t="n">
-        <v>788.0</v>
+        <v>1674.0</v>
       </c>
       <c r="D160" t="n">
-        <v>991.0</v>
+        <v>1348.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>885.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>695.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>492.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1673.0</v>
+        <v>2033.0</v>
       </c>
       <c r="B161" t="n">
-        <v>255.0</v>
+        <v>396.0</v>
       </c>
       <c r="C161" t="n">
-        <v>1112.0</v>
+        <v>1913.0</v>
       </c>
       <c r="D161" t="n">
-        <v>1504.0</v>
+        <v>1387.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1693.0</v>
+        <v>2244.0</v>
       </c>
       <c r="B162" t="n">
-        <v>293.0</v>
+        <v>427.0</v>
       </c>
       <c r="C162" t="n">
-        <v>1290.0</v>
+        <v>2747.0</v>
       </c>
       <c r="D162" t="n">
-        <v>2391.0</v>
+        <v>2570.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1341.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1227.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>950.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1625.0</v>
+        <v>2255.0</v>
       </c>
       <c r="B163" t="n">
-        <v>315.0</v>
+        <v>453.0</v>
       </c>
       <c r="C163" t="n">
-        <v>1209.0</v>
+        <v>2210.0</v>
       </c>
       <c r="D163" t="n">
-        <v>2104.0</v>
+        <v>2650.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>749.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1971.0</v>
+        <v>2819.0</v>
       </c>
       <c r="B164" t="n">
-        <v>411.0</v>
+        <v>522.0</v>
       </c>
       <c r="C164" t="n">
-        <v>1402.0</v>
+        <v>2699.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2406.0</v>
+        <v>3158.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1587.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1214.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>833.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2234.0</v>
+        <v>3095.0</v>
       </c>
       <c r="B165" t="n">
-        <v>521.0</v>
+        <v>604.0</v>
       </c>
       <c r="C165" t="n">
-        <v>1492.0</v>
+        <v>2836.0</v>
       </c>
       <c r="D165" t="n">
-        <v>2258.0</v>
+        <v>2751.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1645.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1188.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>955.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2585.0</v>
+        <v>3709.0</v>
       </c>
       <c r="B166" t="n">
-        <v>569.0</v>
+        <v>764.0</v>
       </c>
       <c r="C166" t="n">
-        <v>1513.0</v>
+        <v>2999.0</v>
       </c>
       <c r="D166" t="n">
-        <v>2536.0</v>
+        <v>2966.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1534.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>942.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1909.0</v>
+        <v>2978.0</v>
       </c>
       <c r="B167" t="n">
-        <v>466.0</v>
+        <v>635.0</v>
       </c>
       <c r="C167" t="n">
-        <v>1093.0</v>
+        <v>2270.0</v>
       </c>
       <c r="D167" t="n">
-        <v>1676.0</v>
+        <v>2274.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>908.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>670.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1986.0</v>
+        <v>2682.0</v>
       </c>
       <c r="B168" t="n">
-        <v>420.0</v>
+        <v>507.0</v>
       </c>
       <c r="C168" t="n">
-        <v>1184.0</v>
+        <v>2146.0</v>
       </c>
       <c r="D168" t="n">
-        <v>1922.0</v>
+        <v>2390.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>819.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>640.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2814.0</v>
+        <v>4077.0</v>
       </c>
       <c r="B169" t="n">
-        <v>478.0</v>
+        <v>697.0</v>
       </c>
       <c r="C169" t="n">
-        <v>1617.0</v>
+        <v>3445.0</v>
       </c>
       <c r="D169" t="n">
-        <v>3192.0</v>
+        <v>4208.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1756.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1514.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1151.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2664.0</v>
+        <v>3913.0</v>
       </c>
       <c r="B170" t="n">
-        <v>562.0</v>
+        <v>788.0</v>
       </c>
       <c r="C170" t="n">
-        <v>1431.0</v>
+        <v>2997.0</v>
       </c>
       <c r="D170" t="n">
-        <v>2864.0</v>
+        <v>3867.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1753.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1353.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1084.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3202.0</v>
+        <v>4935.0</v>
       </c>
       <c r="B171" t="n">
-        <v>600.0</v>
+        <v>975.0</v>
       </c>
       <c r="C171" t="n">
-        <v>1519.0</v>
+        <v>3207.0</v>
       </c>
       <c r="D171" t="n">
-        <v>2648.0</v>
+        <v>3748.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1810.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1247.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1048.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3652.0</v>
+        <v>5516.0</v>
       </c>
       <c r="B172" t="n">
-        <v>694.0</v>
+        <v>1061.0</v>
       </c>
       <c r="C172" t="n">
-        <v>1677.0</v>
+        <v>3574.0</v>
       </c>
       <c r="D172" t="n">
-        <v>2860.0</v>
+        <v>3812.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1788.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1366.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1131.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>4099.0</v>
+        <v>6286.0</v>
       </c>
       <c r="B173" t="n">
-        <v>758.0</v>
+        <v>1166.0</v>
       </c>
       <c r="C173" t="n">
-        <v>1723.0</v>
+        <v>3693.0</v>
       </c>
       <c r="D173" t="n">
-        <v>3129.0</v>
+        <v>4283.0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1745.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1611.0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1263.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3178.0</v>
+        <v>5237.0</v>
       </c>
       <c r="B174" t="n">
-        <v>613.0</v>
+        <v>1015.0</v>
       </c>
       <c r="C174" t="n">
-        <v>1346.0</v>
+        <v>2992.0</v>
       </c>
       <c r="D174" t="n">
-        <v>2371.0</v>
+        <v>3547.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1207.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1187.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>991.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3059.0</v>
+        <v>4642.0</v>
       </c>
       <c r="B175" t="n">
-        <v>498.0</v>
+        <v>823.0</v>
       </c>
       <c r="C175" t="n">
-        <v>1299.0</v>
+        <v>2783.0</v>
       </c>
       <c r="D175" t="n">
-        <v>2475.0</v>
+        <v>3402.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>994.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>812.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>4187.0</v>
+        <v>6651.0</v>
       </c>
       <c r="B176" t="n">
-        <v>594.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C176" t="n">
-        <v>1817.0</v>
+        <v>4266.0</v>
       </c>
       <c r="D176" t="n">
-        <v>3793.0</v>
+        <v>5580.0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2168.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1796.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1483.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>4136.0</v>
+        <v>6409.0</v>
       </c>
       <c r="B177" t="n">
-        <v>600.0</v>
+        <v>1164.0</v>
       </c>
       <c r="C177" t="n">
-        <v>1670.0</v>
+        <v>3759.0</v>
       </c>
       <c r="D177" t="n">
-        <v>3473.0</v>
+        <v>5159.0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2153.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1789.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1402.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4730.0</v>
+        <v>7632.0</v>
       </c>
       <c r="B178" t="n">
-        <v>691.0</v>
+        <v>1414.0</v>
       </c>
       <c r="C178" t="n">
-        <v>1761.0</v>
+        <v>3938.0</v>
       </c>
       <c r="D178" t="n">
-        <v>3412.0</v>
+        <v>5308.0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2115.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1670.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1386.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>5293.0</v>
+        <v>8647.0</v>
       </c>
       <c r="B179" t="n">
-        <v>753.0</v>
+        <v>1603.0</v>
       </c>
       <c r="C179" t="n">
-        <v>1812.0</v>
+        <v>4318.0</v>
       </c>
       <c r="D179" t="n">
-        <v>3557.0</v>
+        <v>5433.0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2055.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1716.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1530.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>6030.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B180" t="n">
-        <v>848.0</v>
+        <v>1844.0</v>
       </c>
       <c r="C180" t="n">
-        <v>1924.0</v>
+        <v>4478.0</v>
       </c>
       <c r="D180" t="n">
-        <v>3906.0</v>
+        <v>5653.0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2112.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2026.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1648.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4484.0</v>
+        <v>8283.0</v>
       </c>
       <c r="B181" t="n">
-        <v>631.0</v>
+        <v>1582.0</v>
       </c>
       <c r="C181" t="n">
-        <v>1476.0</v>
+        <v>3707.0</v>
       </c>
       <c r="D181" t="n">
-        <v>2993.0</v>
+        <v>4968.0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1457.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1240.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4382.0</v>
+        <v>7324.0</v>
       </c>
       <c r="B182" t="n">
-        <v>638.0</v>
+        <v>1252.0</v>
       </c>
       <c r="C182" t="n">
-        <v>1493.0</v>
+        <v>3305.0</v>
       </c>
       <c r="D182" t="n">
-        <v>3006.0</v>
+        <v>4572.0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1248.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1252.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>983.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5815.0</v>
+        <v>10333.0</v>
       </c>
       <c r="B183" t="n">
-        <v>702.0</v>
+        <v>1522.0</v>
       </c>
       <c r="C183" t="n">
-        <v>1943.0</v>
+        <v>5104.0</v>
       </c>
       <c r="D183" t="n">
-        <v>4684.0</v>
+        <v>7586.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2522.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2311.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1887.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5646.0</v>
+        <v>9744.0</v>
       </c>
       <c r="B184" t="n">
-        <v>790.0</v>
+        <v>1697.0</v>
       </c>
       <c r="C184" t="n">
-        <v>1891.0</v>
+        <v>4283.0</v>
       </c>
       <c r="D184" t="n">
-        <v>4329.0</v>
+        <v>7073.0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2445.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1799.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>6591.0</v>
+        <v>11312.0</v>
       </c>
       <c r="B185" t="n">
-        <v>887.0</v>
+        <v>1998.0</v>
       </c>
       <c r="C185" t="n">
-        <v>2031.0</v>
+        <v>4844.0</v>
       </c>
       <c r="D185" t="n">
-        <v>4210.0</v>
+        <v>6863.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2399.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1736.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>7249.0</v>
+        <v>12678.0</v>
       </c>
       <c r="B186" t="n">
-        <v>1044.0</v>
+        <v>2257.0</v>
       </c>
       <c r="C186" t="n">
-        <v>2080.0</v>
+        <v>5113.0</v>
       </c>
       <c r="D186" t="n">
-        <v>4396.0</v>
+        <v>7089.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2278.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2078.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1782.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8088.0</v>
+        <v>13976.0</v>
       </c>
       <c r="B187" t="n">
-        <v>1205.0</v>
+        <v>2511.0</v>
       </c>
       <c r="C187" t="n">
-        <v>2102.0</v>
+        <v>5438.0</v>
       </c>
       <c r="D187" t="n">
-        <v>4858.0</v>
+        <v>7581.0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2336.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2333.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1987.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>6193.0</v>
+        <v>11513.0</v>
       </c>
       <c r="B188" t="n">
-        <v>898.0</v>
+        <v>2151.0</v>
       </c>
       <c r="C188" t="n">
-        <v>1677.0</v>
+        <v>4204.0</v>
       </c>
       <c r="D188" t="n">
-        <v>3763.0</v>
+        <v>6414.0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1727.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1692.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1551.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5858.0</v>
+        <v>9806.0</v>
       </c>
       <c r="B189" t="n">
-        <v>730.0</v>
+        <v>1618.0</v>
       </c>
       <c r="C189" t="n">
-        <v>1680.0</v>
+        <v>3738.0</v>
       </c>
       <c r="D189" t="n">
-        <v>3628.0</v>
+        <v>6004.0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1367.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1435.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1321.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>7855.0</v>
+        <v>13698.0</v>
       </c>
       <c r="B190" t="n">
-        <v>811.0</v>
+        <v>1859.0</v>
       </c>
       <c r="C190" t="n">
-        <v>2292.0</v>
+        <v>5910.0</v>
       </c>
       <c r="D190" t="n">
-        <v>5695.0</v>
+        <v>9424.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2722.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2551.0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2307.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>7378.0</v>
+        <v>12528.0</v>
       </c>
       <c r="B191" t="n">
-        <v>951.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C191" t="n">
-        <v>2146.0</v>
+        <v>5099.0</v>
       </c>
       <c r="D191" t="n">
-        <v>5365.0</v>
+        <v>8833.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2547.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2322.0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2092.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>8722.0</v>
+        <v>14454.0</v>
       </c>
       <c r="B192" t="n">
-        <v>1032.0</v>
+        <v>2232.0</v>
       </c>
       <c r="C192" t="n">
-        <v>2183.0</v>
+        <v>5394.0</v>
       </c>
       <c r="D192" t="n">
-        <v>5342.0</v>
+        <v>8623.0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2511.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2036.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1889.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9396.0</v>
+        <v>15677.0</v>
       </c>
       <c r="B193" t="n">
-        <v>1168.0</v>
+        <v>2427.0</v>
       </c>
       <c r="C193" t="n">
-        <v>2511.0</v>
+        <v>5713.0</v>
       </c>
       <c r="D193" t="n">
-        <v>5225.0</v>
+        <v>8460.0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2461.0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2155.0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2100.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>10566.0</v>
+        <v>17216.0</v>
       </c>
       <c r="B194" t="n">
-        <v>1263.0</v>
+        <v>2556.0</v>
       </c>
       <c r="C194" t="n">
-        <v>2494.0</v>
+        <v>5914.0</v>
       </c>
       <c r="D194" t="n">
-        <v>5803.0</v>
+        <v>9017.0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2452.0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2351.0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2289.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7568.0</v>
+        <v>13398.0</v>
       </c>
       <c r="B195" t="n">
-        <v>994.0</v>
+        <v>2026.0</v>
       </c>
       <c r="C195" t="n">
-        <v>1877.0</v>
+        <v>4544.0</v>
       </c>
       <c r="D195" t="n">
-        <v>4405.0</v>
+        <v>7593.0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1769.0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1603.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>7661.0</v>
+        <v>11700.0</v>
       </c>
       <c r="B196" t="n">
-        <v>852.0</v>
+        <v>1504.0</v>
       </c>
       <c r="C196" t="n">
-        <v>1935.0</v>
+        <v>4157.0</v>
       </c>
       <c r="D196" t="n">
-        <v>4519.0</v>
+        <v>7041.0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1328.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1455.0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1415.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9602.0</v>
+        <v>15484.0</v>
       </c>
       <c r="B197" t="n">
-        <v>889.0</v>
+        <v>1775.0</v>
       </c>
       <c r="C197" t="n">
-        <v>2621.0</v>
+        <v>6326.0</v>
       </c>
       <c r="D197" t="n">
-        <v>6920.0</v>
+        <v>10615.0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2837.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2510.0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2481.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8921.0</v>
+        <v>13600.0</v>
       </c>
       <c r="B198" t="n">
-        <v>940.0</v>
+        <v>1864.0</v>
       </c>
       <c r="C198" t="n">
-        <v>2426.0</v>
+        <v>5292.0</v>
       </c>
       <c r="D198" t="n">
-        <v>6373.0</v>
+        <v>9918.0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2672.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2236.0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2228.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10372.0</v>
+        <v>15417.0</v>
       </c>
       <c r="B199" t="n">
-        <v>1058.0</v>
+        <v>2044.0</v>
       </c>
       <c r="C199" t="n">
-        <v>2498.0</v>
+        <v>5750.0</v>
       </c>
       <c r="D199" t="n">
-        <v>5914.0</v>
+        <v>9632.0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2542.0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2059.0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2144.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>10941.0</v>
+        <v>15902.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1126.0</v>
+        <v>2214.0</v>
       </c>
       <c r="C200" t="n">
-        <v>2686.0</v>
+        <v>6162.0</v>
       </c>
       <c r="D200" t="n">
-        <v>6162.0</v>
+        <v>9353.0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2382.0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2208.0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2059.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11970.0</v>
+        <v>17256.0</v>
       </c>
       <c r="B201" t="n">
-        <v>1232.0</v>
+        <v>2409.0</v>
       </c>
       <c r="C201" t="n">
-        <v>2783.0</v>
+        <v>5921.0</v>
       </c>
       <c r="D201" t="n">
-        <v>6653.0</v>
+        <v>9833.0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2491.0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2349.0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2309.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>8810.0</v>
+        <v>12835.0</v>
       </c>
       <c r="B202" t="n">
-        <v>980.0</v>
+        <v>1817.0</v>
       </c>
       <c r="C202" t="n">
-        <v>2142.0</v>
+        <v>4694.0</v>
       </c>
       <c r="D202" t="n">
-        <v>4891.0</v>
+        <v>7973.0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1712.0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1618.0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1630.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>8430.0</v>
+        <v>11029.0</v>
       </c>
       <c r="B203" t="n">
-        <v>766.0</v>
+        <v>1398.0</v>
       </c>
       <c r="C203" t="n">
-        <v>2095.0</v>
+        <v>4345.0</v>
       </c>
       <c r="D203" t="n">
-        <v>5162.0</v>
+        <v>7505.0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1427.0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1469.0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1418.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>10383.0</v>
+        <v>14286.0</v>
       </c>
       <c r="B204" t="n">
-        <v>788.0</v>
+        <v>1526.0</v>
       </c>
       <c r="C204" t="n">
-        <v>2885.0</v>
+        <v>6249.0</v>
       </c>
       <c r="D204" t="n">
-        <v>7668.0</v>
+        <v>11088.0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2571.0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2424.0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2426.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9498.0</v>
+        <v>12543.0</v>
       </c>
       <c r="B205" t="n">
-        <v>887.0</v>
+        <v>1587.0</v>
       </c>
       <c r="C205" t="n">
-        <v>2623.0</v>
+        <v>5494.0</v>
       </c>
       <c r="D205" t="n">
-        <v>6794.0</v>
+        <v>10348.0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2622.0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2132.0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2088.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>10647.0</v>
+        <v>13919.0</v>
       </c>
       <c r="B206" t="n">
-        <v>965.0</v>
+        <v>1638.0</v>
       </c>
       <c r="C206" t="n">
-        <v>2631.0</v>
+        <v>5675.0</v>
       </c>
       <c r="D206" t="n">
-        <v>6597.0</v>
+        <v>9948.0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2380.0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2010.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>11054.0</v>
+        <v>14357.0</v>
       </c>
       <c r="B207" t="n">
-        <v>1029.0</v>
+        <v>1773.0</v>
       </c>
       <c r="C207" t="n">
-        <v>2782.0</v>
+        <v>5893.0</v>
       </c>
       <c r="D207" t="n">
-        <v>6822.0</v>
+        <v>9359.0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2313.0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2046.0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2118.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>7630.0</v>
+        <v>9763.0</v>
       </c>
       <c r="B208" t="n">
-        <v>759.0</v>
+        <v>1225.0</v>
       </c>
       <c r="C208" t="n">
-        <v>2007.0</v>
+        <v>3920.0</v>
       </c>
       <c r="D208" t="n">
-        <v>4710.0</v>
+        <v>6538.0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1409.0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1281.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>7323.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B209" t="n">
-        <v>579.0</v>
+        <v>985.0</v>
       </c>
       <c r="C209" t="n">
-        <v>1985.0</v>
+        <v>4478.0</v>
       </c>
       <c r="D209" t="n">
-        <v>5251.0</v>
+        <v>7909.0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1698.0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1633.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>5687.0</v>
+        <v>6807.0</v>
       </c>
       <c r="B210" t="n">
-        <v>487.0</v>
+        <v>711.0</v>
       </c>
       <c r="C210" t="n">
-        <v>1793.0</v>
+        <v>3578.0</v>
       </c>
       <c r="D210" t="n">
-        <v>4842.0</v>
+        <v>6741.0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1297.0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1289.0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1290.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>7514.0</v>
+        <v>9638.0</v>
       </c>
       <c r="B211" t="n">
-        <v>527.0</v>
+        <v>879.0</v>
       </c>
       <c r="C211" t="n">
-        <v>2331.0</v>
+        <v>5257.0</v>
       </c>
       <c r="D211" t="n">
-        <v>6913.0</v>
+        <v>10046.0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2387.0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2049.0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2014.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>6638.0</v>
+        <v>8254.0</v>
       </c>
       <c r="B212" t="n">
-        <v>580.0</v>
+        <v>1013.0</v>
       </c>
       <c r="C212" t="n">
-        <v>2316.0</v>
+        <v>4731.0</v>
       </c>
       <c r="D212" t="n">
-        <v>5882.0</v>
+        <v>8665.0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2252.0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1807.0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1586.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>7467.0</v>
+        <v>9228.0</v>
       </c>
       <c r="B213" t="n">
-        <v>615.0</v>
+        <v>1170.0</v>
       </c>
       <c r="C213" t="n">
-        <v>2344.0</v>
+        <v>4800.0</v>
       </c>
       <c r="D213" t="n">
-        <v>5549.0</v>
+        <v>7722.0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2202.0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1685.0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1689.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>7693.0</v>
+        <v>9700.0</v>
       </c>
       <c r="B214" t="n">
-        <v>687.0</v>
+        <v>1190.0</v>
       </c>
       <c r="C214" t="n">
-        <v>2451.0</v>
+        <v>5132.0</v>
       </c>
       <c r="D214" t="n">
-        <v>6010.0</v>
+        <v>7880.0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1788.0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1727.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>8204.0</v>
+        <v>10058.0</v>
       </c>
       <c r="B215" t="n">
-        <v>729.0</v>
+        <v>1235.0</v>
       </c>
       <c r="C215" t="n">
-        <v>2458.0</v>
+        <v>5125.0</v>
       </c>
       <c r="D215" t="n">
-        <v>6524.0</v>
+        <v>8316.0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1792.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>5993.0</v>
+        <v>7735.0</v>
       </c>
       <c r="B216" t="n">
-        <v>571.0</v>
+        <v>1005.0</v>
       </c>
       <c r="C216" t="n">
-        <v>1798.0</v>
+        <v>3950.0</v>
       </c>
       <c r="D216" t="n">
-        <v>4684.0</v>
+        <v>6491.0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1451.0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1411.0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1329.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>5739.0</v>
+        <v>6487.0</v>
       </c>
       <c r="B217" t="n">
-        <v>464.0</v>
+        <v>768.0</v>
       </c>
       <c r="C217" t="n">
-        <v>1841.0</v>
+        <v>3614.0</v>
       </c>
       <c r="D217" t="n">
-        <v>4690.0</v>
+        <v>5929.0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1037.0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1074.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>6667.0</v>
+        <v>8366.0</v>
       </c>
       <c r="B218" t="n">
-        <v>501.0</v>
+        <v>850.0</v>
       </c>
       <c r="C218" t="n">
-        <v>2473.0</v>
+        <v>5472.0</v>
       </c>
       <c r="D218" t="n">
-        <v>7035.0</v>
+        <v>9028.0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2188.0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2035.0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1963.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>6042.0</v>
+        <v>7306.0</v>
       </c>
       <c r="B219" t="n">
-        <v>538.0</v>
+        <v>915.0</v>
       </c>
       <c r="C219" t="n">
-        <v>2266.0</v>
+        <v>4824.0</v>
       </c>
       <c r="D219" t="n">
-        <v>6479.0</v>
+        <v>8526.0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2063.0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1736.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>6580.0</v>
+        <v>7774.0</v>
       </c>
       <c r="B220" t="n">
-        <v>617.0</v>
+        <v>966.0</v>
       </c>
       <c r="C220" t="n">
-        <v>2369.0</v>
+        <v>4971.0</v>
       </c>
       <c r="D220" t="n">
-        <v>6134.0</v>
+        <v>8113.0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2070.0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1674.0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1671.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>4219.0</v>
+        <v>4906.0</v>
       </c>
       <c r="B221" t="n">
-        <v>433.0</v>
+        <v>692.0</v>
       </c>
       <c r="C221" t="n">
-        <v>1636.0</v>
+        <v>3224.0</v>
       </c>
       <c r="D221" t="n">
-        <v>4025.0</v>
+        <v>5362.0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1095.0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>987.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>6190.0</v>
+        <v>7515.0</v>
       </c>
       <c r="B222" t="n">
-        <v>519.0</v>
+        <v>882.0</v>
       </c>
       <c r="C222" t="n">
-        <v>2389.0</v>
+        <v>5463.0</v>
       </c>
       <c r="D222" t="n">
-        <v>6557.0</v>
+        <v>8158.0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2017.0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1910.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3685.0</v>
+        <v>4674.0</v>
       </c>
       <c r="B223" t="n">
-        <v>417.0</v>
+        <v>672.0</v>
       </c>
       <c r="C223" t="n">
-        <v>1516.0</v>
+        <v>3472.0</v>
       </c>
       <c r="D223" t="n">
-        <v>4406.0</v>
+        <v>6216.0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1323.0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1313.0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1155.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3484.0</v>
+        <v>4063.0</v>
       </c>
       <c r="B224" t="n">
-        <v>354.0</v>
+        <v>560.0</v>
       </c>
       <c r="C224" t="n">
-        <v>1517.0</v>
+        <v>3084.0</v>
       </c>
       <c r="D224" t="n">
-        <v>4205.0</v>
+        <v>5311.0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1046.0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1009.0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>984.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4456.0</v>
+        <v>5374.0</v>
       </c>
       <c r="B225" t="n">
-        <v>431.0</v>
+        <v>608.0</v>
       </c>
       <c r="C225" t="n">
-        <v>2052.0</v>
+        <v>4933.0</v>
       </c>
       <c r="D225" t="n">
-        <v>6135.0</v>
+        <v>8033.0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1726.0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1660.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3807.0</v>
+        <v>4771.0</v>
       </c>
       <c r="B226" t="n">
-        <v>423.0</v>
+        <v>685.0</v>
       </c>
       <c r="C226" t="n">
-        <v>1916.0</v>
+        <v>4273.0</v>
       </c>
       <c r="D226" t="n">
-        <v>5377.0</v>
+        <v>6971.0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1642.0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1644.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>4149.0</v>
+        <v>5346.0</v>
       </c>
       <c r="B227" t="n">
-        <v>451.0</v>
+        <v>730.0</v>
       </c>
       <c r="C227" t="n">
-        <v>1947.0</v>
+        <v>4313.0</v>
       </c>
       <c r="D227" t="n">
-        <v>5269.0</v>
+        <v>7204.0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1517.0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1429.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3989.0</v>
+        <v>5186.0</v>
       </c>
       <c r="B228" t="n">
-        <v>475.0</v>
+        <v>832.0</v>
       </c>
       <c r="C228" t="n">
-        <v>2127.0</v>
+        <v>4850.0</v>
       </c>
       <c r="D228" t="n">
-        <v>5367.0</v>
+        <v>6576.0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1685.0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1493.0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1444.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>4208.0</v>
+        <v>5640.0</v>
       </c>
       <c r="B229" t="n">
-        <v>554.0</v>
+        <v>923.0</v>
       </c>
       <c r="C229" t="n">
-        <v>2129.0</v>
+        <v>4732.0</v>
       </c>
       <c r="D229" t="n">
-        <v>5590.0</v>
+        <v>6969.0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1707.0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1672.0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1617.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2928.0</v>
+        <v>4322.0</v>
       </c>
       <c r="B230" t="n">
-        <v>412.0</v>
+        <v>709.0</v>
       </c>
       <c r="C230" t="n">
-        <v>1595.0</v>
+        <v>3805.0</v>
       </c>
       <c r="D230" t="n">
-        <v>4162.0</v>
+        <v>5747.0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1233.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2764.0</v>
+        <v>3632.0</v>
       </c>
       <c r="B231" t="n">
-        <v>354.0</v>
+        <v>557.0</v>
       </c>
       <c r="C231" t="n">
-        <v>1582.0</v>
+        <v>3433.0</v>
       </c>
       <c r="D231" t="n">
-        <v>4268.0</v>
+        <v>5190.0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>938.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3247.0</v>
+        <v>4622.0</v>
       </c>
       <c r="B232" t="n">
-        <v>415.0</v>
+        <v>635.0</v>
       </c>
       <c r="C232" t="n">
-        <v>2127.0</v>
+        <v>5247.0</v>
       </c>
       <c r="D232" t="n">
-        <v>6212.0</v>
+        <v>8063.0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1725.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2795.0</v>
+        <v>4069.0</v>
       </c>
       <c r="B233" t="n">
-        <v>410.0</v>
+        <v>681.0</v>
       </c>
       <c r="C233" t="n">
-        <v>1898.0</v>
+        <v>4494.0</v>
       </c>
       <c r="D233" t="n">
-        <v>5669.0</v>
+        <v>7593.0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1567.0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1632.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2927.0</v>
+        <v>4061.0</v>
       </c>
       <c r="B234" t="n">
-        <v>420.0</v>
+        <v>725.0</v>
       </c>
       <c r="C234" t="n">
-        <v>2026.0</v>
+        <v>4679.0</v>
       </c>
       <c r="D234" t="n">
-        <v>5366.0</v>
+        <v>7166.0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1758.0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1505.0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1494.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2310.0</v>
+        <v>3449.0</v>
       </c>
       <c r="B235" t="n">
-        <v>347.0</v>
+        <v>646.0</v>
       </c>
       <c r="C235" t="n">
-        <v>1718.0</v>
+        <v>4206.0</v>
       </c>
       <c r="D235" t="n">
-        <v>4100.0</v>
+        <v>5307.0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1264.0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1221.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2227.0</v>
+        <v>3548.0</v>
       </c>
       <c r="B236" t="n">
-        <v>366.0</v>
+        <v>635.0</v>
       </c>
       <c r="C236" t="n">
-        <v>1739.0</v>
+        <v>4167.0</v>
       </c>
       <c r="D236" t="n">
-        <v>4431.0</v>
+        <v>5613.0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1352.0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1375.0</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1337.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1400.0</v>
+        <v>2335.0</v>
       </c>
       <c r="B237" t="n">
-        <v>268.0</v>
+        <v>485.0</v>
       </c>
       <c r="C237" t="n">
-        <v>1167.0</v>
+        <v>3172.0</v>
       </c>
       <c r="D237" t="n">
-        <v>3105.0</v>
+        <v>4506.0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>913.0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>936.0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>938.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1484.0</v>
+        <v>2210.0</v>
       </c>
       <c r="B238" t="n">
-        <v>228.0</v>
+        <v>395.0</v>
       </c>
       <c r="C238" t="n">
-        <v>1394.0</v>
+        <v>3115.0</v>
       </c>
       <c r="D238" t="n">
-        <v>3891.0</v>
+        <v>4855.0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>921.0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1027.0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>924.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1377.0</v>
+        <v>2202.0</v>
       </c>
       <c r="B239" t="n">
-        <v>279.0</v>
+        <v>435.0</v>
       </c>
       <c r="C239" t="n">
-        <v>1486.0</v>
+        <v>3927.0</v>
       </c>
       <c r="D239" t="n">
-        <v>4215.0</v>
+        <v>5416.0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1339.0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1258.0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1235.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1209.0</v>
+        <v>1897.0</v>
       </c>
       <c r="B240" t="n">
-        <v>265.0</v>
+        <v>427.0</v>
       </c>
       <c r="C240" t="n">
-        <v>1346.0</v>
+        <v>3395.0</v>
       </c>
       <c r="D240" t="n">
-        <v>3693.0</v>
+        <v>4889.0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1339.0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1071.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1125.0</v>
+        <v>1830.0</v>
       </c>
       <c r="B241" t="n">
-        <v>273.0</v>
+        <v>417.0</v>
       </c>
       <c r="C241" t="n">
-        <v>1324.0</v>
+        <v>3325.0</v>
       </c>
       <c r="D241" t="n">
-        <v>3279.0</v>
+        <v>4351.0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1222.0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>994.0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>946.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1081.0</v>
+        <v>1767.0</v>
       </c>
       <c r="B242" t="n">
-        <v>262.0</v>
+        <v>437.0</v>
       </c>
       <c r="C242" t="n">
-        <v>1381.0</v>
+        <v>3410.0</v>
       </c>
       <c r="D242" t="n">
-        <v>3220.0</v>
+        <v>3875.0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1234.0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>978.0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>964.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1087.0</v>
+        <v>1725.0</v>
       </c>
       <c r="B243" t="n">
-        <v>283.0</v>
+        <v>475.0</v>
       </c>
       <c r="C243" t="n">
-        <v>1333.0</v>
+        <v>3400.0</v>
       </c>
       <c r="D243" t="n">
-        <v>3220.0</v>
+        <v>3974.0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1129.0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1039.0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>985.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>657.0</v>
+        <v>1164.0</v>
       </c>
       <c r="B244" t="n">
-        <v>192.0</v>
+        <v>316.0</v>
       </c>
       <c r="C244" t="n">
-        <v>860.0</v>
+        <v>2260.0</v>
       </c>
       <c r="D244" t="n">
-        <v>1846.0</v>
+        <v>2576.0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>683.0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G244" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>737.0</v>
+        <v>1096.0</v>
       </c>
       <c r="B245" t="n">
-        <v>216.0</v>
+        <v>330.0</v>
       </c>
       <c r="C245" t="n">
-        <v>1013.0</v>
+        <v>2363.0</v>
       </c>
       <c r="D245" t="n">
-        <v>2527.0</v>
+        <v>2872.0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="G245" t="n">
+        <v>606.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>833.0</v>
+        <v>1316.0</v>
       </c>
       <c r="B246" t="n">
-        <v>242.0</v>
+        <v>395.0</v>
       </c>
       <c r="C246" t="n">
-        <v>1419.0</v>
+        <v>3531.0</v>
       </c>
       <c r="D246" t="n">
-        <v>3403.0</v>
+        <v>4233.0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1353.0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="G246" t="n">
+        <v>950.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>776.0</v>
+        <v>1205.0</v>
       </c>
       <c r="B247" t="n">
-        <v>249.0</v>
+        <v>429.0</v>
       </c>
       <c r="C247" t="n">
-        <v>1302.0</v>
+        <v>3024.0</v>
       </c>
       <c r="D247" t="n">
-        <v>3029.0</v>
+        <v>3717.0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>992.0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>822.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>777.0</v>
+        <v>1236.0</v>
       </c>
       <c r="B248" t="n">
-        <v>233.0</v>
+        <v>470.0</v>
       </c>
       <c r="C248" t="n">
-        <v>1351.0</v>
+        <v>3230.0</v>
       </c>
       <c r="D248" t="n">
-        <v>2835.0</v>
+        <v>3551.0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1197.0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>897.0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>808.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>777.0</v>
+        <v>1257.0</v>
       </c>
       <c r="B249" t="n">
-        <v>280.0</v>
+        <v>533.0</v>
       </c>
       <c r="C249" t="n">
-        <v>1598.0</v>
+        <v>3521.0</v>
       </c>
       <c r="D249" t="n">
-        <v>2893.0</v>
+        <v>3328.0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>830.0</v>
+        <v>1276.0</v>
       </c>
       <c r="B250" t="n">
-        <v>318.0</v>
+        <v>531.0</v>
       </c>
       <c r="C250" t="n">
-        <v>1529.0</v>
+        <v>3551.0</v>
       </c>
       <c r="D250" t="n">
-        <v>3139.0</v>
+        <v>3530.0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1136.0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1013.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>639.0</v>
+        <v>999.0</v>
       </c>
       <c r="B251" t="n">
-        <v>264.0</v>
+        <v>482.0</v>
       </c>
       <c r="C251" t="n">
-        <v>1084.0</v>
+        <v>2793.0</v>
       </c>
       <c r="D251" t="n">
-        <v>2178.0</v>
+        <v>2703.0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>751.0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>772.0</v>
+      </c>
+      <c r="G251" t="n">
+        <v>591.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>612.0</v>
+        <v>903.0</v>
       </c>
       <c r="B252" t="n">
-        <v>279.0</v>
+        <v>448.0</v>
       </c>
       <c r="C252" t="n">
-        <v>1149.0</v>
+        <v>2551.0</v>
       </c>
       <c r="D252" t="n">
-        <v>2420.0</v>
+        <v>2550.0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>568.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>719.0</v>
+        <v>1142.0</v>
       </c>
       <c r="B253" t="n">
-        <v>308.0</v>
+        <v>524.0</v>
       </c>
       <c r="C253" t="n">
-        <v>1539.0</v>
+        <v>4127.0</v>
       </c>
       <c r="D253" t="n">
-        <v>3583.0</v>
+        <v>4094.0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1338.0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1049.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>681.0</v>
+        <v>1014.0</v>
       </c>
       <c r="B254" t="n">
-        <v>305.0</v>
+        <v>554.0</v>
       </c>
       <c r="C254" t="n">
-        <v>1466.0</v>
+        <v>3763.0</v>
       </c>
       <c r="D254" t="n">
-        <v>3156.0</v>
+        <v>3781.0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1330.0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1127.0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>902.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>669.0</v>
+        <v>1155.0</v>
       </c>
       <c r="B255" t="n">
-        <v>338.0</v>
+        <v>655.0</v>
       </c>
       <c r="C255" t="n">
-        <v>1560.0</v>
+        <v>3877.0</v>
       </c>
       <c r="D255" t="n">
-        <v>3240.0</v>
+        <v>3589.0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1319.0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1084.0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>878.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>736.0</v>
+        <v>1061.0</v>
       </c>
       <c r="B256" t="n">
-        <v>337.0</v>
+        <v>629.0</v>
       </c>
       <c r="C256" t="n">
-        <v>1714.0</v>
+        <v>4125.0</v>
       </c>
       <c r="D256" t="n">
-        <v>3195.0</v>
+        <v>3709.0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1318.0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>941.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>728.0</v>
+        <v>1152.0</v>
       </c>
       <c r="B257" t="n">
-        <v>332.0</v>
+        <v>661.0</v>
       </c>
       <c r="C257" t="n">
-        <v>1782.0</v>
+        <v>4546.0</v>
       </c>
       <c r="D257" t="n">
-        <v>3527.0</v>
+        <v>3705.0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1317.0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1262.0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1015.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>550.0</v>
+        <v>847.0</v>
       </c>
       <c r="B258" t="n">
-        <v>324.0</v>
+        <v>563.0</v>
       </c>
       <c r="C258" t="n">
-        <v>1342.0</v>
+        <v>3389.0</v>
       </c>
       <c r="D258" t="n">
-        <v>2592.0</v>
+        <v>3151.0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>906.0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>982.0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>696.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>527.0</v>
+        <v>783.0</v>
       </c>
       <c r="B259" t="n">
-        <v>256.0</v>
+        <v>492.0</v>
       </c>
       <c r="C259" t="n">
-        <v>1350.0</v>
+        <v>3125.0</v>
       </c>
       <c r="D259" t="n">
-        <v>2629.0</v>
+        <v>2757.0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>651.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>612.0</v>
+        <v>969.0</v>
       </c>
       <c r="B260" t="n">
-        <v>257.0</v>
+        <v>557.0</v>
       </c>
       <c r="C260" t="n">
-        <v>1923.0</v>
+        <v>4898.0</v>
       </c>
       <c r="D260" t="n">
-        <v>4009.0</v>
+        <v>4241.0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1509.0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1387.0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1091.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>530.0</v>
+        <v>852.0</v>
       </c>
       <c r="B261" t="n">
-        <v>293.0</v>
+        <v>569.0</v>
       </c>
       <c r="C261" t="n">
-        <v>1723.0</v>
+        <v>4277.0</v>
       </c>
       <c r="D261" t="n">
-        <v>3790.0</v>
+        <v>3831.0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1479.0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>976.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>561.0</v>
+        <v>828.0</v>
       </c>
       <c r="B262" t="n">
-        <v>288.0</v>
+        <v>636.0</v>
       </c>
       <c r="C262" t="n">
-        <v>1829.0</v>
+        <v>4522.0</v>
       </c>
       <c r="D262" t="n">
-        <v>3619.0</v>
+        <v>3776.0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1389.0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1248.0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>915.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>590.0</v>
+        <v>799.0</v>
       </c>
       <c r="B263" t="n">
-        <v>301.0</v>
+        <v>727.0</v>
       </c>
       <c r="C263" t="n">
-        <v>1998.0</v>
+        <v>4870.0</v>
       </c>
       <c r="D263" t="n">
-        <v>3705.0</v>
+        <v>3775.0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1367.0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1376.0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1010.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>570.0</v>
+        <v>901.0</v>
       </c>
       <c r="B264" t="n">
-        <v>286.0</v>
+        <v>775.0</v>
       </c>
       <c r="C264" t="n">
-        <v>2134.0</v>
+        <v>5199.0</v>
       </c>
       <c r="D264" t="n">
-        <v>3841.0</v>
+        <v>3798.0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1389.0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1380.0</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1066.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>402.0</v>
+        <v>721.0</v>
       </c>
       <c r="B265" t="n">
-        <v>258.0</v>
+        <v>626.0</v>
       </c>
       <c r="C265" t="n">
-        <v>1622.0</v>
+        <v>3913.0</v>
       </c>
       <c r="D265" t="n">
-        <v>3014.0</v>
+        <v>3141.0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>810.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>459.0</v>
+        <v>649.0</v>
       </c>
       <c r="B266" t="n">
-        <v>241.0</v>
+        <v>565.0</v>
       </c>
       <c r="C266" t="n">
-        <v>1606.0</v>
+        <v>3734.0</v>
       </c>
       <c r="D266" t="n">
-        <v>3026.0</v>
+        <v>2794.0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>759.0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>797.0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>629.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>493.0</v>
+        <v>720.0</v>
       </c>
       <c r="B267" t="n">
-        <v>274.0</v>
+        <v>596.0</v>
       </c>
       <c r="C267" t="n">
-        <v>2134.0</v>
+        <v>5487.0</v>
       </c>
       <c r="D267" t="n">
-        <v>4585.0</v>
+        <v>4216.0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1673.0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1558.0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1116.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>462.0</v>
+        <v>759.0</v>
       </c>
       <c r="B268" t="n">
-        <v>291.0</v>
+        <v>597.0</v>
       </c>
       <c r="C268" t="n">
-        <v>2025.0</v>
+        <v>4774.0</v>
       </c>
       <c r="D268" t="n">
-        <v>4229.0</v>
+        <v>3848.0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1598.0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1362.0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1031.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>475.0</v>
+        <v>688.0</v>
       </c>
       <c r="B269" t="n">
-        <v>302.0</v>
+        <v>630.0</v>
       </c>
       <c r="C269" t="n">
-        <v>2102.0</v>
+        <v>5129.0</v>
       </c>
       <c r="D269" t="n">
-        <v>4029.0</v>
+        <v>3806.0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1538.0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>934.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>466.0</v>
+        <v>706.0</v>
       </c>
       <c r="B270" t="n">
-        <v>304.0</v>
+        <v>602.0</v>
       </c>
       <c r="C270" t="n">
-        <v>2223.0</v>
+        <v>5619.0</v>
       </c>
       <c r="D270" t="n">
-        <v>4099.0</v>
+        <v>3553.0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1593.0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1375.0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>964.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>478.0</v>
+        <v>687.0</v>
       </c>
       <c r="B271" t="n">
-        <v>273.0</v>
+        <v>656.0</v>
       </c>
       <c r="C271" t="n">
-        <v>2373.0</v>
+        <v>5695.0</v>
       </c>
       <c r="D271" t="n">
-        <v>4491.0</v>
+        <v>3779.0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1545.0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1457.0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1081.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>386.0</v>
+        <v>623.0</v>
       </c>
       <c r="B272" t="n">
-        <v>234.0</v>
+        <v>532.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1794.0</v>
+        <v>4706.0</v>
       </c>
       <c r="D272" t="n">
-        <v>3326.0</v>
+        <v>3100.0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1156.0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>760.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>394.0</v>
+        <v>500.0</v>
       </c>
       <c r="B273" t="n">
-        <v>226.0</v>
+        <v>438.0</v>
       </c>
       <c r="C273" t="n">
-        <v>1746.0</v>
+        <v>4131.0</v>
       </c>
       <c r="D273" t="n">
-        <v>3303.0</v>
+        <v>2709.0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>872.0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>886.0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>606.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>443.0</v>
+        <v>661.0</v>
       </c>
       <c r="B274" t="n">
-        <v>238.0</v>
+        <v>497.0</v>
       </c>
       <c r="C274" t="n">
-        <v>2435.0</v>
+        <v>6301.0</v>
       </c>
       <c r="D274" t="n">
-        <v>5119.0</v>
+        <v>4011.0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1636.0</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1068.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>344.0</v>
+        <v>463.0</v>
       </c>
       <c r="B275" t="n">
-        <v>247.0</v>
+        <v>382.0</v>
       </c>
       <c r="C275" t="n">
-        <v>1612.0</v>
+        <v>3470.0</v>
       </c>
       <c r="D275" t="n">
-        <v>3073.0</v>
+        <v>2454.0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>434.0</v>
+        <v>584.0</v>
       </c>
       <c r="B276" t="n">
-        <v>204.0</v>
+        <v>448.0</v>
       </c>
       <c r="C276" t="n">
-        <v>2264.0</v>
+        <v>5730.0</v>
       </c>
       <c r="D276" t="n">
-        <v>4587.0</v>
+        <v>3567.0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1413.0</v>
+      </c>
+      <c r="G276" t="n">
+        <v>922.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>402.0</v>
+        <v>559.0</v>
       </c>
       <c r="B277" t="n">
-        <v>222.0</v>
+        <v>466.0</v>
       </c>
       <c r="C277" t="n">
-        <v>2210.0</v>
+        <v>5394.0</v>
       </c>
       <c r="D277" t="n">
-        <v>4327.0</v>
+        <v>3194.0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>917.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>388.0</v>
+        <v>544.0</v>
       </c>
       <c r="B278" t="n">
-        <v>227.0</v>
+        <v>454.0</v>
       </c>
       <c r="C278" t="n">
-        <v>2282.0</v>
+        <v>5477.0</v>
       </c>
       <c r="D278" t="n">
-        <v>4295.0</v>
+        <v>3034.0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1661.0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1299.0</v>
+      </c>
+      <c r="G278" t="n">
+        <v>909.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>371.0</v>
+        <v>430.0</v>
       </c>
       <c r="B279" t="n">
-        <v>195.0</v>
+        <v>413.0</v>
       </c>
       <c r="C279" t="n">
-        <v>1648.0</v>
+        <v>4277.0</v>
       </c>
       <c r="D279" t="n">
-        <v>3295.0</v>
+        <v>2521.0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1186.0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="G279" t="n">
+        <v>627.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>333.0</v>
+        <v>417.0</v>
       </c>
       <c r="B280" t="n">
-        <v>193.0</v>
+        <v>317.0</v>
       </c>
       <c r="C280" t="n">
-        <v>1665.0</v>
+        <v>3866.0</v>
       </c>
       <c r="D280" t="n">
-        <v>2946.0</v>
+        <v>1964.0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>832.0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>501.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="B281" t="n">
         <v>357.0</v>
       </c>
-      <c r="B281" t="n">
-        <v>190.0</v>
-      </c>
       <c r="C281" t="n">
-        <v>2335.0</v>
+        <v>5934.0</v>
       </c>
       <c r="D281" t="n">
-        <v>5075.0</v>
+        <v>3280.0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1681.0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1491.0</v>
+      </c>
+      <c r="G281" t="n">
+        <v>983.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>356.0</v>
+        <v>444.0</v>
       </c>
       <c r="B282" t="n">
-        <v>216.0</v>
+        <v>416.0</v>
       </c>
       <c r="C282" t="n">
-        <v>2220.0</v>
+        <v>5195.0</v>
       </c>
       <c r="D282" t="n">
-        <v>4720.0</v>
+        <v>2889.0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1581.0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1305.0</v>
+      </c>
+      <c r="G282" t="n">
+        <v>817.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>338.0</v>
+        <v>435.0</v>
       </c>
       <c r="B283" t="n">
-        <v>226.0</v>
+        <v>308.0</v>
       </c>
       <c r="C283" t="n">
-        <v>1560.0</v>
+        <v>3326.0</v>
       </c>
       <c r="D283" t="n">
-        <v>2925.0</v>
+        <v>1914.0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>881.0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>731.0</v>
+      </c>
+      <c r="G283" t="n">
+        <v>482.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>347.0</v>
+        <v>464.0</v>
       </c>
       <c r="B284" t="n">
-        <v>215.0</v>
+        <v>376.0</v>
       </c>
       <c r="C284" t="n">
-        <v>2380.0</v>
+        <v>5904.0</v>
       </c>
       <c r="D284" t="n">
-        <v>4600.0</v>
+        <v>2692.0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1718.0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1328.0</v>
+      </c>
+      <c r="G284" t="n">
+        <v>802.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>357.0</v>
+        <v>441.0</v>
       </c>
       <c r="B285" t="n">
-        <v>210.0</v>
+        <v>383.0</v>
       </c>
       <c r="C285" t="n">
-        <v>2195.0</v>
+        <v>5218.0</v>
       </c>
       <c r="D285" t="n">
-        <v>4687.0</v>
+        <v>2566.0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1588.0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1363.0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>863.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>313.0</v>
+        <v>379.0</v>
       </c>
       <c r="B286" t="n">
-        <v>178.0</v>
+        <v>337.0</v>
       </c>
       <c r="C286" t="n">
-        <v>1604.0</v>
+        <v>4055.0</v>
       </c>
       <c r="D286" t="n">
-        <v>3301.0</v>
+        <v>2100.0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>953.0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>595.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>313.0</v>
+        <v>397.0</v>
       </c>
       <c r="B287" t="n">
-        <v>164.0</v>
+        <v>288.0</v>
       </c>
       <c r="C287" t="n">
-        <v>1635.0</v>
+        <v>3516.0</v>
       </c>
       <c r="D287" t="n">
-        <v>3098.0</v>
+        <v>1661.0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="G287" t="n">
+        <v>463.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>348.0</v>
+        <v>403.0</v>
       </c>
       <c r="B288" t="n">
-        <v>180.0</v>
+        <v>306.0</v>
       </c>
       <c r="C288" t="n">
-        <v>2287.0</v>
+        <v>5815.0</v>
       </c>
       <c r="D288" t="n">
-        <v>4948.0</v>
+        <v>2494.0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1671.0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1388.0</v>
+      </c>
+      <c r="G288" t="n">
+        <v>838.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>333.0</v>
+        <v>426.0</v>
       </c>
       <c r="B289" t="n">
-        <v>196.0</v>
+        <v>324.0</v>
       </c>
       <c r="C289" t="n">
-        <v>2201.0</v>
+        <v>5054.0</v>
       </c>
       <c r="D289" t="n">
-        <v>4583.0</v>
+        <v>2387.0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1641.0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1204.0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>771.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>323.0</v>
+        <v>403.0</v>
       </c>
       <c r="B290" t="n">
-        <v>188.0</v>
+        <v>343.0</v>
       </c>
       <c r="C290" t="n">
-        <v>2260.0</v>
+        <v>5298.0</v>
       </c>
       <c r="D290" t="n">
-        <v>4380.0</v>
+        <v>2302.0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1506.0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1154.0</v>
+      </c>
+      <c r="G290" t="n">
+        <v>715.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>332.0</v>
+        <v>388.0</v>
       </c>
       <c r="B291" t="n">
-        <v>189.0</v>
+        <v>374.0</v>
       </c>
       <c r="C291" t="n">
-        <v>2208.0</v>
+        <v>5724.0</v>
       </c>
       <c r="D291" t="n">
-        <v>4546.0</v>
+        <v>2103.0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1603.0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1204.0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>684.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>311.0</v>
+        <v>407.0</v>
       </c>
       <c r="B292" t="n">
-        <v>177.0</v>
+        <v>344.0</v>
       </c>
       <c r="C292" t="n">
-        <v>2440.0</v>
+        <v>5743.0</v>
       </c>
       <c r="D292" t="n">
-        <v>4829.0</v>
+        <v>2239.0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="G292" t="n">
+        <v>766.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>277.0</v>
+        <v>419.0</v>
       </c>
       <c r="B293" t="n">
-        <v>186.0</v>
+        <v>343.0</v>
       </c>
       <c r="C293" t="n">
-        <v>1882.0</v>
+        <v>4549.0</v>
       </c>
       <c r="D293" t="n">
-        <v>3716.0</v>
+        <v>1767.0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1031.0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>549.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>307.0</v>
+        <v>350.0</v>
       </c>
       <c r="B294" t="n">
-        <v>154.0</v>
+        <v>278.0</v>
       </c>
       <c r="C294" t="n">
-        <v>1877.0</v>
+        <v>4104.0</v>
       </c>
       <c r="D294" t="n">
-        <v>3548.0</v>
+        <v>1570.0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>767.0</v>
+      </c>
+      <c r="G294" t="n">
+        <v>444.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>327.0</v>
+        <v>432.0</v>
       </c>
       <c r="B295" t="n">
-        <v>155.0</v>
+        <v>326.0</v>
       </c>
       <c r="C295" t="n">
-        <v>2403.0</v>
+        <v>6132.0</v>
       </c>
       <c r="D295" t="n">
-        <v>5465.0</v>
+        <v>2382.0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1417.0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>787.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>293.0</v>
+        <v>382.0</v>
       </c>
       <c r="B296" t="n">
-        <v>196.0</v>
+        <v>319.0</v>
       </c>
       <c r="C296" t="n">
-        <v>2330.0</v>
+        <v>5467.0</v>
       </c>
       <c r="D296" t="n">
-        <v>4994.0</v>
+        <v>2175.0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="G296" t="n">
+        <v>665.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>302.0</v>
+        <v>384.0</v>
       </c>
       <c r="B297" t="n">
-        <v>188.0</v>
+        <v>350.0</v>
       </c>
       <c r="C297" t="n">
-        <v>2420.0</v>
+        <v>5702.0</v>
       </c>
       <c r="D297" t="n">
-        <v>4682.0</v>
+        <v>2023.0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1716.0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1258.0</v>
+      </c>
+      <c r="G297" t="n">
+        <v>625.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>310.0</v>
+        <v>399.0</v>
       </c>
       <c r="B298" t="n">
-        <v>191.0</v>
+        <v>375.0</v>
       </c>
       <c r="C298" t="n">
-        <v>2520.0</v>
+        <v>5998.0</v>
       </c>
       <c r="D298" t="n">
-        <v>4856.0</v>
+        <v>1940.0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1718.0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1301.0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>690.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>294.0</v>
+        <v>418.0</v>
       </c>
       <c r="B299" t="n">
-        <v>171.0</v>
+        <v>391.0</v>
       </c>
       <c r="C299" t="n">
-        <v>2578.0</v>
+        <v>6176.0</v>
       </c>
       <c r="D299" t="n">
-        <v>5086.0</v>
+        <v>1972.0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1704.0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>659.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>259.0</v>
+        <v>373.0</v>
       </c>
       <c r="B300" t="n">
-        <v>167.0</v>
+        <v>370.0</v>
       </c>
       <c r="C300" t="n">
-        <v>1999.0</v>
+        <v>4944.0</v>
       </c>
       <c r="D300" t="n">
-        <v>3775.0</v>
+        <v>1567.0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1249.0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>961.0</v>
+      </c>
+      <c r="G300" t="n">
+        <v>507.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>285.0</v>
+        <v>366.0</v>
       </c>
       <c r="B301" t="n">
-        <v>169.0</v>
+        <v>304.0</v>
       </c>
       <c r="C301" t="n">
-        <v>2052.0</v>
+        <v>4490.0</v>
       </c>
       <c r="D301" t="n">
-        <v>3775.0</v>
+        <v>1378.0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>919.0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>801.0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>267.0</v>
+        <v>413.0</v>
       </c>
       <c r="B302" t="n">
-        <v>180.0</v>
+        <v>368.0</v>
       </c>
       <c r="C302" t="n">
-        <v>2701.0</v>
+        <v>6444.0</v>
       </c>
       <c r="D302" t="n">
-        <v>5608.0</v>
+        <v>2025.0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1514.0</v>
+      </c>
+      <c r="G302" t="n">
+        <v>687.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>271.0</v>
+        <v>390.0</v>
       </c>
       <c r="B303" t="n">
-        <v>179.0</v>
+        <v>375.0</v>
       </c>
       <c r="C303" t="n">
-        <v>2419.0</v>
+        <v>5708.0</v>
       </c>
       <c r="D303" t="n">
-        <v>5159.0</v>
+        <v>1891.0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1311.0</v>
+      </c>
+      <c r="G303" t="n">
+        <v>606.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>271.0</v>
+        <v>367.0</v>
       </c>
       <c r="B304" t="n">
-        <v>191.0</v>
+        <v>372.0</v>
       </c>
       <c r="C304" t="n">
-        <v>2564.0</v>
+        <v>5868.0</v>
       </c>
       <c r="D304" t="n">
-        <v>5055.0</v>
+        <v>1607.0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>571.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>238.0</v>
+        <v>380.0</v>
       </c>
       <c r="B305" t="n">
-        <v>183.0</v>
+        <v>383.0</v>
       </c>
       <c r="C305" t="n">
-        <v>2698.0</v>
+        <v>6270.0</v>
       </c>
       <c r="D305" t="n">
-        <v>4889.0</v>
+        <v>1612.0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1214.0</v>
+      </c>
+      <c r="G305" t="n">
+        <v>565.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>256.0</v>
+        <v>350.0</v>
       </c>
       <c r="B306" t="n">
-        <v>167.0</v>
+        <v>328.0</v>
       </c>
       <c r="C306" t="n">
-        <v>2236.0</v>
+        <v>5191.0</v>
       </c>
       <c r="D306" t="n">
-        <v>4065.0</v>
+        <v>1280.0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1042.0</v>
+      </c>
+      <c r="G306" t="n">
+        <v>478.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>259.0</v>
+        <v>319.0</v>
       </c>
       <c r="B307" t="n">
-        <v>142.0</v>
+        <v>261.0</v>
       </c>
       <c r="C307" t="n">
-        <v>1559.0</v>
+        <v>4005.0</v>
       </c>
       <c r="D307" t="n">
-        <v>2827.0</v>
+        <v>1066.0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>916.0</v>
+      </c>
+      <c r="F307" t="n">
+        <v>719.0</v>
+      </c>
+      <c r="G307" t="n">
+        <v>355.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>251.0</v>
+        <v>337.0</v>
       </c>
       <c r="B308" t="n">
-        <v>132.0</v>
+        <v>301.0</v>
       </c>
       <c r="C308" t="n">
-        <v>1969.0</v>
+        <v>4141.0</v>
       </c>
       <c r="D308" t="n">
-        <v>3830.0</v>
+        <v>1095.0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="G308" t="n">
+        <v>359.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>243.0</v>
+        <v>348.0</v>
       </c>
       <c r="B309" t="n">
-        <v>155.0</v>
+        <v>289.0</v>
       </c>
       <c r="C309" t="n">
-        <v>2010.0</v>
+        <v>4742.0</v>
       </c>
       <c r="D309" t="n">
-        <v>3959.0</v>
+        <v>1273.0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1382.0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>982.0</v>
+      </c>
+      <c r="G309" t="n">
+        <v>483.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>262.0</v>
+        <v>353.0</v>
       </c>
       <c r="B310" t="n">
-        <v>142.0</v>
+        <v>267.0</v>
       </c>
       <c r="C310" t="n">
-        <v>1859.0</v>
+        <v>4137.0</v>
       </c>
       <c r="D310" t="n">
-        <v>3604.0</v>
+        <v>1188.0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>879.0</v>
+      </c>
+      <c r="G310" t="n">
+        <v>433.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>273.0</v>
+        <v>348.0</v>
       </c>
       <c r="B311" t="n">
-        <v>135.0</v>
+        <v>271.0</v>
       </c>
       <c r="C311" t="n">
-        <v>1826.0</v>
+        <v>4163.0</v>
       </c>
       <c r="D311" t="n">
-        <v>3129.0</v>
+        <v>1040.0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1361.0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>794.0</v>
+      </c>
+      <c r="G311" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>242.0</v>
+        <v>343.0</v>
       </c>
       <c r="B312" t="n">
-        <v>158.0</v>
+        <v>294.0</v>
       </c>
       <c r="C312" t="n">
-        <v>1860.0</v>
+        <v>4114.0</v>
       </c>
       <c r="D312" t="n">
-        <v>3042.0</v>
+        <v>931.0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1280.0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>804.0</v>
+      </c>
+      <c r="G312" t="n">
+        <v>375.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>248.0</v>
+        <v>350.0</v>
       </c>
       <c r="B313" t="n">
-        <v>142.0</v>
+        <v>297.0</v>
       </c>
       <c r="C313" t="n">
-        <v>1828.0</v>
+        <v>4040.0</v>
       </c>
       <c r="D313" t="n">
-        <v>3112.0</v>
+        <v>932.0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>825.0</v>
+      </c>
+      <c r="G313" t="n">
+        <v>377.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>261.0</v>
+        <v>345.0</v>
       </c>
       <c r="B314" t="n">
-        <v>125.0</v>
+        <v>251.0</v>
       </c>
       <c r="C314" t="n">
-        <v>1080.0</v>
+        <v>2582.0</v>
       </c>
       <c r="D314" t="n">
-        <v>1731.0</v>
+        <v>676.0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="G314" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>257.0</v>
+        <v>330.0</v>
       </c>
       <c r="B315" t="n">
-        <v>155.0</v>
+        <v>247.0</v>
       </c>
       <c r="C315" t="n">
-        <v>1335.0</v>
+        <v>2791.0</v>
       </c>
       <c r="D315" t="n">
-        <v>2316.0</v>
+        <v>672.0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="G315" t="n">
+        <v>279.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>256.0</v>
+        <v>347.0</v>
       </c>
       <c r="B316" t="n">
-        <v>132.0</v>
+        <v>253.0</v>
       </c>
       <c r="C316" t="n">
-        <v>1634.0</v>
+        <v>3549.0</v>
       </c>
       <c r="D316" t="n">
-        <v>2972.0</v>
+        <v>857.0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1255.0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="G316" t="n">
+        <v>342.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>272.0</v>
+        <v>324.0</v>
       </c>
       <c r="B317" t="n">
-        <v>125.0</v>
+        <v>247.0</v>
       </c>
       <c r="C317" t="n">
-        <v>1099.0</v>
+        <v>2099.0</v>
       </c>
       <c r="D317" t="n">
-        <v>1898.0</v>
+        <v>634.0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="G317" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>269.0</v>
+        <v>357.0</v>
       </c>
       <c r="B318" t="n">
-        <v>141.0</v>
+        <v>232.0</v>
       </c>
       <c r="C318" t="n">
-        <v>1427.0</v>
+        <v>3080.0</v>
       </c>
       <c r="D318" t="n">
-        <v>2187.0</v>
+        <v>696.0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1118.0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>626.0</v>
+      </c>
+      <c r="G318" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>254.0</v>
+        <v>347.0</v>
       </c>
       <c r="B319" t="n">
-        <v>164.0</v>
+        <v>282.0</v>
       </c>
       <c r="C319" t="n">
-        <v>1402.0</v>
+        <v>2947.0</v>
       </c>
       <c r="D319" t="n">
-        <v>2047.0</v>
+        <v>608.0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1026.0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>628.0</v>
+      </c>
+      <c r="G319" t="n">
+        <v>282.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>219.0</v>
+        <v>369.0</v>
       </c>
       <c r="B320" t="n">
-        <v>161.0</v>
+        <v>238.0</v>
       </c>
       <c r="C320" t="n">
-        <v>1429.0</v>
+        <v>2725.0</v>
       </c>
       <c r="D320" t="n">
-        <v>2137.0</v>
+        <v>629.0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>972.0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="G320" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>251.0</v>
+        <v>308.0</v>
       </c>
       <c r="B321" t="n">
-        <v>121.0</v>
+        <v>256.0</v>
       </c>
       <c r="C321" t="n">
-        <v>837.0</v>
+        <v>1772.0</v>
       </c>
       <c r="D321" t="n">
-        <v>1170.0</v>
+        <v>443.0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="G321" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>241.0</v>
+        <v>340.0</v>
       </c>
       <c r="B322" t="n">
-        <v>140.0</v>
+        <v>217.0</v>
       </c>
       <c r="C322" t="n">
-        <v>1026.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D322" t="n">
-        <v>1493.0</v>
+        <v>456.0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="G322" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>269.0</v>
+        <v>292.0</v>
       </c>
       <c r="B323" t="n">
-        <v>143.0</v>
+        <v>253.0</v>
       </c>
       <c r="C323" t="n">
-        <v>1269.0</v>
+        <v>2612.0</v>
       </c>
       <c r="D323" t="n">
-        <v>2059.0</v>
+        <v>546.0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1022.0</v>
+      </c>
+      <c r="F323" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>284.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>234.0</v>
+        <v>337.0</v>
       </c>
       <c r="B324" t="n">
-        <v>160.0</v>
+        <v>272.0</v>
       </c>
       <c r="C324" t="n">
-        <v>1168.0</v>
+        <v>2193.0</v>
       </c>
       <c r="D324" t="n">
-        <v>1789.0</v>
+        <v>558.0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>876.0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="G324" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>253.0</v>
+        <v>317.0</v>
       </c>
       <c r="B325" t="n">
-        <v>164.0</v>
+        <v>268.0</v>
       </c>
       <c r="C325" t="n">
-        <v>1188.0</v>
+        <v>2372.0</v>
       </c>
       <c r="D325" t="n">
-        <v>1612.0</v>
+        <v>523.0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="F325" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="G325" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>240.0</v>
+        <v>336.0</v>
       </c>
       <c r="B326" t="n">
-        <v>159.0</v>
+        <v>263.0</v>
       </c>
       <c r="C326" t="n">
-        <v>1235.0</v>
+        <v>2264.0</v>
       </c>
       <c r="D326" t="n">
-        <v>1546.0</v>
+        <v>522.0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="G326" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>248.0</v>
+        <v>303.0</v>
       </c>
       <c r="B327" t="n">
-        <v>148.0</v>
+        <v>274.0</v>
       </c>
       <c r="C327" t="n">
-        <v>1210.0</v>
+        <v>2348.0</v>
       </c>
       <c r="D327" t="n">
-        <v>1698.0</v>
+        <v>534.0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="G327" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>217.0</v>
+        <v>311.0</v>
       </c>
       <c r="B328" t="n">
-        <v>122.0</v>
+        <v>242.0</v>
       </c>
       <c r="C328" t="n">
-        <v>770.0</v>
+        <v>1575.0</v>
       </c>
       <c r="D328" t="n">
-        <v>1076.0</v>
+        <v>342.0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="G328" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>233.0</v>
+        <v>324.0</v>
       </c>
       <c r="B329" t="n">
-        <v>131.0</v>
+        <v>207.0</v>
       </c>
       <c r="C329" t="n">
-        <v>976.0</v>
+        <v>1724.0</v>
       </c>
       <c r="D329" t="n">
-        <v>1357.0</v>
+        <v>398.0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>557.0</v>
+      </c>
+      <c r="F329" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="G329" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>226.0</v>
+        <v>348.0</v>
       </c>
       <c r="B330" t="n">
-        <v>153.0</v>
+        <v>261.0</v>
       </c>
       <c r="C330" t="n">
-        <v>1126.0</v>
+        <v>2157.0</v>
       </c>
       <c r="D330" t="n">
-        <v>1683.0</v>
+        <v>519.0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>889.0</v>
+      </c>
+      <c r="F330" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="G330" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>223.0</v>
+        <v>342.0</v>
       </c>
       <c r="B331" t="n">
-        <v>152.0</v>
+        <v>259.0</v>
       </c>
       <c r="C331" t="n">
-        <v>1004.0</v>
+        <v>1911.0</v>
       </c>
       <c r="D331" t="n">
-        <v>1501.0</v>
+        <v>476.0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>893.0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>225.0</v>
+        <v>348.0</v>
       </c>
       <c r="B332" t="n">
-        <v>131.0</v>
+        <v>251.0</v>
       </c>
       <c r="C332" t="n">
-        <v>1120.0</v>
+        <v>1965.0</v>
       </c>
       <c r="D332" t="n">
-        <v>1334.0</v>
+        <v>483.0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="F332" t="n">
+        <v>489.0</v>
+      </c>
+      <c r="G332" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>244.0</v>
+        <v>326.0</v>
       </c>
       <c r="B333" t="n">
-        <v>142.0</v>
+        <v>273.0</v>
       </c>
       <c r="C333" t="n">
-        <v>1045.0</v>
+        <v>1905.0</v>
       </c>
       <c r="D333" t="n">
-        <v>1373.0</v>
+        <v>483.0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>806.0</v>
+      </c>
+      <c r="F333" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="G333" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>229.0</v>
+        <v>337.0</v>
       </c>
       <c r="B334" t="n">
-        <v>157.0</v>
+        <v>268.0</v>
       </c>
       <c r="C334" t="n">
-        <v>1092.0</v>
+        <v>2058.0</v>
       </c>
       <c r="D334" t="n">
-        <v>1400.0</v>
+        <v>483.0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>487.0</v>
+      </c>
+      <c r="G334" t="n">
+        <v>257.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>223.0</v>
+        <v>276.0</v>
       </c>
       <c r="B335" t="n">
-        <v>155.0</v>
+        <v>234.0</v>
       </c>
       <c r="C335" t="n">
-        <v>696.0</v>
+        <v>1280.0</v>
       </c>
       <c r="D335" t="n">
-        <v>922.0</v>
+        <v>333.0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="G335" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>230.0</v>
+        <v>324.0</v>
       </c>
       <c r="B336" t="n">
-        <v>141.0</v>
+        <v>218.0</v>
       </c>
       <c r="C336" t="n">
-        <v>910.0</v>
+        <v>1501.0</v>
       </c>
       <c r="D336" t="n">
-        <v>1218.0</v>
+        <v>398.0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="G336" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>241.0</v>
+        <v>320.0</v>
       </c>
       <c r="B337" t="n">
-        <v>147.0</v>
+        <v>239.0</v>
       </c>
       <c r="C337" t="n">
-        <v>889.0</v>
+        <v>1593.0</v>
       </c>
       <c r="D337" t="n">
-        <v>1039.0</v>
+        <v>372.0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="G337" t="n">
+        <v>193.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>254.0</v>
+        <v>341.0</v>
       </c>
       <c r="B338" t="n">
-        <v>148.0</v>
+        <v>244.0</v>
       </c>
       <c r="C338" t="n">
-        <v>856.0</v>
+        <v>1419.0</v>
       </c>
       <c r="D338" t="n">
-        <v>963.0</v>
+        <v>371.0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>554.0</v>
+      </c>
+      <c r="F338" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="G338" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>235.0</v>
+        <v>331.0</v>
       </c>
       <c r="B339" t="n">
-        <v>138.0</v>
+        <v>249.0</v>
       </c>
       <c r="C339" t="n">
-        <v>841.0</v>
+        <v>1418.0</v>
       </c>
       <c r="D339" t="n">
-        <v>848.0</v>
+        <v>333.0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="G339" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>212.0</v>
+        <v>327.0</v>
       </c>
       <c r="B340" t="n">
-        <v>135.0</v>
+        <v>231.0</v>
       </c>
       <c r="C340" t="n">
-        <v>829.0</v>
+        <v>1344.0</v>
       </c>
       <c r="D340" t="n">
-        <v>825.0</v>
+        <v>313.0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="G340" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>246.0</v>
+        <v>320.0</v>
       </c>
       <c r="B341" t="n">
-        <v>165.0</v>
+        <v>224.0</v>
       </c>
       <c r="C341" t="n">
-        <v>773.0</v>
+        <v>1250.0</v>
       </c>
       <c r="D341" t="n">
-        <v>674.0</v>
+        <v>322.0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="G341" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>220.0</v>
+        <v>331.0</v>
       </c>
       <c r="B342" t="n">
-        <v>130.0</v>
+        <v>212.0</v>
       </c>
       <c r="C342" t="n">
-        <v>720.0</v>
+        <v>970.0</v>
       </c>
       <c r="D342" t="n">
-        <v>533.0</v>
+        <v>315.0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="G342" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>211.0</v>
+        <v>288.0</v>
       </c>
       <c r="B343" t="n">
-        <v>138.0</v>
+        <v>231.0</v>
       </c>
       <c r="C343" t="n">
-        <v>677.0</v>
+        <v>892.0</v>
       </c>
       <c r="D343" t="n">
-        <v>482.0</v>
+        <v>290.0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="G343" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>245.0</v>
+        <v>318.0</v>
       </c>
       <c r="B344" t="n">
-        <v>161.0</v>
+        <v>229.0</v>
       </c>
       <c r="C344" t="n">
-        <v>773.0</v>
+        <v>1122.0</v>
       </c>
       <c r="D344" t="n">
-        <v>529.0</v>
+        <v>265.0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="G344" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>224.0</v>
+        <v>328.0</v>
       </c>
       <c r="B345" t="n">
-        <v>130.0</v>
+        <v>213.0</v>
       </c>
       <c r="C345" t="n">
-        <v>792.0</v>
+        <v>998.0</v>
       </c>
       <c r="D345" t="n">
-        <v>524.0</v>
+        <v>254.0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="G345" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>225.0</v>
+        <v>297.0</v>
       </c>
       <c r="B346" t="n">
-        <v>143.0</v>
+        <v>228.0</v>
       </c>
       <c r="C346" t="n">
-        <v>768.0</v>
+        <v>1008.0</v>
       </c>
       <c r="D346" t="n">
-        <v>444.0</v>
+        <v>274.0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="G346" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>221.0</v>
+        <v>316.0</v>
       </c>
       <c r="B347" t="n">
-        <v>150.0</v>
+        <v>277.0</v>
       </c>
       <c r="C347" t="n">
-        <v>704.0</v>
+        <v>1048.0</v>
       </c>
       <c r="D347" t="n">
-        <v>438.0</v>
+        <v>247.0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="G347" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>227.0</v>
+        <v>307.0</v>
       </c>
       <c r="B348" t="n">
-        <v>130.0</v>
+        <v>265.0</v>
       </c>
       <c r="C348" t="n">
-        <v>740.0</v>
+        <v>984.0</v>
       </c>
       <c r="D348" t="n">
-        <v>424.0</v>
+        <v>242.0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="F348" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="G348" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="B349" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="F349" t="n">
         <v>238.0</v>
       </c>
-      <c r="B349" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="C349" t="n">
-        <v>573.0</v>
-      </c>
-      <c r="D349" t="n">
-        <v>329.0</v>
+      <c r="G349" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="B350" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="F350" t="n">
         <v>218.0</v>
       </c>
-      <c r="B350" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="C350" t="n">
-        <v>592.0</v>
-      </c>
-      <c r="D350" t="n">
-        <v>352.0</v>
+      <c r="G350" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>220.0</v>
+        <v>300.0</v>
       </c>
       <c r="B351" t="n">
-        <v>129.0</v>
+        <v>259.0</v>
       </c>
       <c r="C351" t="n">
-        <v>737.0</v>
+        <v>896.0</v>
       </c>
       <c r="D351" t="n">
-        <v>375.0</v>
+        <v>231.0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="G351" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>218.0</v>
+        <v>299.0</v>
       </c>
       <c r="B352" t="n">
-        <v>155.0</v>
+        <v>233.0</v>
       </c>
       <c r="C352" t="n">
-        <v>662.0</v>
+        <v>937.0</v>
       </c>
       <c r="D352" t="n">
-        <v>392.0</v>
+        <v>234.0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="G352" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>218.0</v>
+        <v>304.0</v>
       </c>
       <c r="B353" t="n">
-        <v>137.0</v>
+        <v>243.0</v>
       </c>
       <c r="C353" t="n">
-        <v>675.0</v>
+        <v>863.0</v>
       </c>
       <c r="D353" t="n">
-        <v>382.0</v>
+        <v>229.0</v>
+      </c>
+      <c r="E353" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="F353" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="G353" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>237.0</v>
+        <v>310.0</v>
       </c>
       <c r="B354" t="n">
-        <v>123.0</v>
+        <v>225.0</v>
       </c>
       <c r="C354" t="n">
-        <v>703.0</v>
+        <v>841.0</v>
       </c>
       <c r="D354" t="n">
-        <v>339.0</v>
+        <v>250.0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="F354" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="G354" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>225.0</v>
+        <v>287.0</v>
       </c>
       <c r="B355" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="G355" t="n">
         <v>150.0</v>
-      </c>
-      <c r="C355" t="n">
-        <v>727.0</v>
-      </c>
-      <c r="D355" t="n">
-        <v>332.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>247.0</v>
+        <v>303.0</v>
       </c>
       <c r="B356" t="n">
-        <v>137.0</v>
+        <v>236.0</v>
       </c>
       <c r="C356" t="n">
-        <v>650.0</v>
+        <v>674.0</v>
       </c>
       <c r="D356" t="n">
-        <v>334.0</v>
+        <v>250.0</v>
+      </c>
+      <c r="E356" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="G356" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>215.0</v>
+        <v>268.0</v>
       </c>
       <c r="B357" t="n">
-        <v>111.0</v>
+        <v>226.0</v>
       </c>
       <c r="C357" t="n">
-        <v>566.0</v>
+        <v>704.0</v>
       </c>
       <c r="D357" t="n">
-        <v>344.0</v>
+        <v>261.0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="G357" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>216.0</v>
+        <v>300.0</v>
       </c>
       <c r="B358" t="n">
-        <v>138.0</v>
+        <v>226.0</v>
       </c>
       <c r="C358" t="n">
-        <v>680.0</v>
+        <v>813.0</v>
       </c>
       <c r="D358" t="n">
-        <v>334.0</v>
+        <v>266.0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="F358" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="G358" t="n">
+        <v>153.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>222.0</v>
+        <v>311.0</v>
       </c>
       <c r="B359" t="n">
-        <v>135.0</v>
+        <v>239.0</v>
       </c>
       <c r="C359" t="n">
-        <v>671.0</v>
+        <v>849.0</v>
       </c>
       <c r="D359" t="n">
-        <v>338.0</v>
+        <v>237.0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="G359" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>235.0</v>
+        <v>295.0</v>
       </c>
       <c r="B360" t="n">
-        <v>135.0</v>
+        <v>220.0</v>
       </c>
       <c r="C360" t="n">
-        <v>699.0</v>
+        <v>824.0</v>
       </c>
       <c r="D360" t="n">
-        <v>344.0</v>
+        <v>263.0</v>
+      </c>
+      <c r="E360" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="G360" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>221.0</v>
+        <v>334.0</v>
       </c>
       <c r="B361" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="G361" t="n">
         <v>147.0</v>
-      </c>
-      <c r="C361" t="n">
-        <v>668.0</v>
-      </c>
-      <c r="D361" t="n">
-        <v>334.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>196.0</v>
+        <v>290.0</v>
       </c>
       <c r="B362" t="n">
-        <v>134.0</v>
+        <v>228.0</v>
       </c>
       <c r="C362" t="n">
-        <v>666.0</v>
+        <v>837.0</v>
       </c>
       <c r="D362" t="n">
-        <v>345.0</v>
+        <v>209.0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="G362" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>231.0</v>
+        <v>316.0</v>
       </c>
       <c r="B363" t="n">
-        <v>143.0</v>
+        <v>233.0</v>
       </c>
       <c r="C363" t="n">
-        <v>567.0</v>
+        <v>709.0</v>
       </c>
       <c r="D363" t="n">
-        <v>326.0</v>
+        <v>244.0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="G363" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="B364" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="E364" t="n">
         <v>214.0</v>
       </c>
-      <c r="B364" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="C364" t="n">
-        <v>584.0</v>
-      </c>
-      <c r="D364" t="n">
-        <v>282.0</v>
+      <c r="F364" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="G364" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>230.0</v>
+        <v>316.0</v>
       </c>
       <c r="B365" t="n">
-        <v>135.0</v>
+        <v>209.0</v>
       </c>
       <c r="C365" t="n">
-        <v>705.0</v>
+        <v>805.0</v>
       </c>
       <c r="D365" t="n">
-        <v>301.0</v>
+        <v>217.0</v>
+      </c>
+      <c r="E365" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="G365" t="n">
+        <v>140.0</v>
       </c>
     </row>
   </sheetData>
